--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -42,6 +42,48 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>AUG-DERMA SILICON GEL 15 GM</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>F B12 20PIECES</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INJOCEPH 1000MG  VIAL</t>
+  </si>
+  <si>
+    <t>21.50</t>
+  </si>
+  <si>
+    <t>21.5000</t>
   </si>
   <si>
     <t>Saturday, 24 May, 2025 8:45 AM</t>
@@ -254,10 +296,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +308,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +716,136 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>19</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>376.5</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +859,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>21.5000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 8:45 AM</t>
+    <t>Saturday, 24 May, 2025 8:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>21.5000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 8:46 AM</t>
+    <t>Saturday, 24 May, 2025 8:48 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>21.5000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 8:48 AM</t>
+    <t>Saturday, 24 May, 2025 8:49 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>21.5000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 8:49 AM</t>
+    <t>Saturday, 24 May, 2025 8:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>21.5000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 8:50 AM</t>
+    <t>Saturday, 24 May, 2025 9:02 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>21.5000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:02 AM</t>
+    <t>Saturday, 24 May, 2025 9:05 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>21.5000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:05 AM</t>
+    <t>Saturday, 24 May, 2025 9:08 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>21.5000</t>
+  </si>
+  <si>
+    <t>ORGASOL LIGHT CREAM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISBRINA  CAPS</t>
+  </si>
+  <si>
+    <t>-1:-1</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
   </si>
   <si>
     <t>Saturday, 24 May, 2025 9:08 AM</t>
@@ -814,38 +835,104 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>376.5</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>18</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>19</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>26</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
         <v>27</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>29</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>656.5</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>34</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +956,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -107,7 +107,7 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:08 AM</t>
+    <t>Saturday, 24 May, 2025 9:25 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -107,7 +107,7 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:25 AM</t>
+    <t>Saturday, 24 May, 2025 9:26 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -107,7 +107,7 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:26 AM</t>
+    <t>Saturday, 24 May, 2025 9:27 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,57 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>AUG-DERMA SILICON GEL 15 GM</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>300.0000</t>
+    <t>ORGASOL LIGHT CREAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>F B12 20PIECES</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INJOCEPH 1000MG  VIAL</t>
-  </si>
-  <si>
-    <t>21.50</t>
-  </si>
-  <si>
-    <t>21.5000</t>
-  </si>
-  <si>
-    <t>ORGASOL LIGHT CREAM</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRISBRINA  CAPS</t>
   </si>
   <si>
@@ -107,7 +74,7 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:27 AM</t>
+    <t>Saturday, 24 May, 2025 9:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -787,152 +754,53 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="A9" s="7">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c t="s" r="C9" s="8">
+      <c r="P9" s="13">
+        <v>280</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
         <v>22</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c t="s" r="H9" s="9">
-        <v>16</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c t="s" r="L9" s="10">
-        <v>19</v>
-      </c>
-      <c r="M9" s="10"/>
-      <c t="s" r="N9" s="8">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
         <v>23</v>
       </c>
-      <c r="O9" s="8"/>
-      <c t="s" r="P9" s="11">
-        <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c t="s" r="C10" s="8">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c t="s" r="H10" s="9">
-        <v>18</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c t="s" r="L10" s="10">
-        <v>19</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c t="s" r="N10" s="8">
-        <v>26</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c t="s" r="P10" s="11">
-        <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c t="s" r="C11" s="8">
-        <v>28</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c t="s" r="H11" s="9">
-        <v>29</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c t="s" r="L11" s="10">
-        <v>19</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c t="s" r="N11" s="8">
-        <v>30</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c t="s" r="P11" s="11">
-        <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>656.5</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>33</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>34</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -951,25 +819,10 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -47,7 +47,7 @@
     <t>ORGASOL LIGHT CREAM</t>
   </si>
   <si>
-    <t>0:0</t>
+    <t>1:0</t>
   </si>
   <si>
     <t>0</t>
@@ -59,13 +59,10 @@
     <t>130.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRISBRINA  CAPS</t>
   </si>
   <si>
-    <t>-1:-1</t>
+    <t>0:-1</t>
   </si>
   <si>
     <t>150.00</t>
@@ -74,7 +71,7 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:30 AM</t>
+    <t>Saturday, 24 May, 2025 9:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -732,7 +729,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -741,14 +738,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -758,14 +755,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -776,7 +773,7 @@
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c t="s" r="A10" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -784,13 +781,13 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c t="s" r="G10" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c t="s" r="K10" s="17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -71,7 +71,7 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:32 AM</t>
+    <t>Saturday, 24 May, 2025 9:33 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -47,22 +47,25 @@
     <t>ORGASOL LIGHT CREAM</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRISBRINA  CAPS</t>
   </si>
   <si>
-    <t>0:-1</t>
+    <t>-1:-1</t>
   </si>
   <si>
     <t>150.00</t>
@@ -71,7 +74,7 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:33 AM</t>
+    <t>Saturday, 24 May, 2025 9:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -729,7 +732,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -738,14 +741,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -755,14 +758,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -773,7 +776,7 @@
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c t="s" r="A10" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -781,13 +784,13 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c t="s" r="G10" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c t="s" r="K10" s="17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,37 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ORGASOL LIGHT CREAM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISBRINA  CAPS</t>
-  </si>
-  <si>
-    <t>-1:-1</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 9:34 AM</t>
+    <t>Saturday, 24 May, 2025 9:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -284,10 +254,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -296,7 +266,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -704,103 +674,56 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="7"/>
-      <c t="s" r="C7" s="8">
-        <v>11</v>
-      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c t="s" r="H7" s="9">
-        <v>12</v>
-      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c t="s" r="L7" s="10">
-        <v>13</v>
-      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c t="s" r="N7" s="8">
-        <v>14</v>
-      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c t="s" r="P7" s="11">
-        <v>15</v>
-      </c>
-      <c t="s" r="Q7" s="12">
-        <v>16</v>
-      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c t="s" r="C8" s="8">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c t="s" r="H8" s="9">
-        <v>18</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c t="s" r="L8" s="10">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c t="s" r="A9" s="14">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c t="s" r="G9" s="15">
+        <v>12</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c t="s" r="K9" s="17">
         <v>13</v>
       </c>
-      <c r="M8" s="10"/>
-      <c t="s" r="N8" s="8">
-        <v>19</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c t="s" r="P8" s="11">
-        <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>280</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>22</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>23</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="17">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -814,15 +737,10 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:Q9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -42,6 +42,36 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>ORGASOL LIGHT CREAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISBRINA  CAPS</t>
+  </si>
+  <si>
+    <t>-1:-1</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
   </si>
   <si>
     <t>Saturday, 24 May, 2025 9:35 AM</t>
@@ -254,10 +284,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +296,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +704,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>280</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>23</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +814,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,37 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ORGASOL LIGHT CREAM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISBRINA  CAPS</t>
-  </si>
-  <si>
-    <t>-1:-1</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 9:35 AM</t>
+    <t>Saturday, 24 May, 2025 9:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -284,10 +254,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -296,7 +266,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -704,103 +674,56 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="7"/>
-      <c t="s" r="C7" s="8">
-        <v>11</v>
-      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c t="s" r="H7" s="9">
-        <v>12</v>
-      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c t="s" r="L7" s="10">
-        <v>13</v>
-      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c t="s" r="N7" s="8">
-        <v>14</v>
-      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c t="s" r="P7" s="11">
-        <v>15</v>
-      </c>
-      <c t="s" r="Q7" s="12">
-        <v>16</v>
-      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c t="s" r="C8" s="8">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c t="s" r="H8" s="9">
-        <v>18</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c t="s" r="L8" s="10">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c t="s" r="A9" s="14">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c t="s" r="G9" s="15">
+        <v>12</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c t="s" r="K9" s="17">
         <v>13</v>
       </c>
-      <c r="M8" s="10"/>
-      <c t="s" r="N8" s="8">
-        <v>19</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c t="s" r="P8" s="11">
-        <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>280</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>22</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>23</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="17">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -814,15 +737,10 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:Q9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,7 +44,37 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:41 AM</t>
+    <t>ORGASOL LIGHT CREAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISBRINA  CAPS</t>
+  </si>
+  <si>
+    <t>-1:-1</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 9:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +284,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +296,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +704,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>280</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>23</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +814,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>150.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUICK NAIL  LOTION</t>
+  </si>
+  <si>
+    <t>-23:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>1955.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t>Saturday, 24 May, 2025 9:42 AM</t>
@@ -769,38 +784,71 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>280</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>22</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>23</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>2235</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>27</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>28</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -819,10 +867,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -89,7 +89,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:42 AM</t>
+    <t>Saturday, 24 May, 2025 9:43 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -47,39 +47,36 @@
     <t>ORGASOL LIGHT CREAM</t>
   </si>
   <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISBRINA  CAPS</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUICK NAIL  LOTION</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISBRINA  CAPS</t>
-  </si>
-  <si>
-    <t>-1:-1</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUICK NAIL  LOTION</t>
-  </si>
-  <si>
-    <t>-23:0</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -89,7 +86,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:43 AM</t>
+    <t>Saturday, 24 May, 2025 9:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -747,7 +744,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -756,14 +753,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -773,14 +770,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -789,14 +786,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -806,14 +803,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -824,7 +821,7 @@
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c t="s" r="A11" s="14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -832,13 +829,13 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c t="s" r="G11" s="15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c t="s" r="K11" s="17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -47,24 +47,24 @@
     <t>ORGASOL LIGHT CREAM</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRISBRINA  CAPS</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -74,9 +74,6 @@
     <t xml:space="preserve">QUICK NAIL  LOTION</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -86,7 +83,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:46 AM</t>
+    <t>Saturday, 24 May, 2025 9:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -744,7 +741,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -753,14 +750,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -777,7 +774,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -793,7 +790,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -803,14 +800,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>23</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -821,7 +818,7 @@
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c t="s" r="A11" s="14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -829,13 +826,13 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c t="s" r="G11" s="15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c t="s" r="K11" s="17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -83,7 +83,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:47 AM</t>
+    <t>Saturday, 24 May, 2025 9:48 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,46 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ORGASOL LIGHT CREAM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
+    <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t xml:space="preserve">PRISBRINA  CAPS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUICK NAIL  LOTION</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>1955.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 9:48 AM</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 9:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -745,104 +724,38 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c t="s" r="C8" s="8">
+      <c r="P8" s="13">
+        <v>22.77</v>
+      </c>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c t="s" r="A9" s="14">
         <v>17</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c t="s" r="H8" s="9">
-        <v>12</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c t="s" r="L8" s="10">
-        <v>13</v>
-      </c>
-      <c r="M8" s="10"/>
-      <c t="s" r="N8" s="8">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c t="s" r="G9" s="15">
         <v>18</v>
       </c>
-      <c r="O8" s="8"/>
-      <c t="s" r="P8" s="11">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c t="s" r="K9" s="17">
         <v>19</v>
       </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="A9" s="7">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c t="s" r="C9" s="8">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c t="s" r="H9" s="9">
-        <v>12</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c t="s" r="L9" s="10">
-        <v>13</v>
-      </c>
-      <c r="M9" s="10"/>
-      <c t="s" r="N9" s="8">
-        <v>21</v>
-      </c>
-      <c r="O9" s="8"/>
-      <c t="s" r="P9" s="11">
-        <v>22</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>2235</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>24</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>25</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>26</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="17">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -856,20 +769,10 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:Q9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,25 +44,49 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>COLONA 30 F.C.TAB</t>
+    <t>ORGASOL LIGHT CREAM</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 9:49 AM</t>
+    <t xml:space="preserve">PRISBRINA  CAPS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUICK NAIL  LOTION</t>
+  </si>
+  <si>
+    <t>-23:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>1955.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 9:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +748,104 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>22.77</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>21</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>2235</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +859,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:51 AM</t>
+    <t>Saturday, 24 May, 2025 9:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,49 +44,76 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ORGASOL LIGHT CREAM</t>
-  </si>
-  <si>
-    <t>-1:0</t>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISBRINA  CAPS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUICK NAIL  LOTION</t>
-  </si>
-  <si>
-    <t>-23:0</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>1955.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 9:52 AM</t>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 9:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,7 +787,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -770,11 +797,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -786,14 +813,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -803,49 +830,115 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>2235</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>26</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>27</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>18</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>30</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>159.63</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +962,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL 1MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
     <t>22.7700</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DAFLON 500MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -113,7 +122,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:55 AM</t>
+    <t>Saturday, 24 May, 2025 9:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -787,7 +796,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -797,11 +806,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -813,14 +822,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -830,11 +839,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -846,14 +855,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -863,11 +872,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -879,66 +888,99 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>32</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>21</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>159.63</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c t="s" r="Q12" s="12">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>172.83000000000001</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>39</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1014,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -71,12 +71,21 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>94.0000</t>
+  </si>
+  <si>
     <t>DAFLON 500MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>190.00</t>
   </si>
   <si>
@@ -95,6 +104,15 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -122,7 +140,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:56 AM</t>
+    <t>Saturday, 24 May, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -862,7 +880,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -872,11 +890,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -888,14 +906,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -905,11 +923,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -921,7 +939,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -934,53 +952,119 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>35</v>
       </c>
-      <c t="s" r="Q12" s="12">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>172.83000000000001</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>37</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>38</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>21</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
         <v>39</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>332.82999999999998</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>43</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>44</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>45</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1019,10 +1103,20 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,103 +44,49 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>AMARYL 1MG 30 TAB</t>
+    <t>ORGASOL LIGHT CREAM</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>94.0000</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 9:58 AM</t>
+    <t xml:space="preserve">PRISBRINA  CAPS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUICK NAIL  LOTION</t>
+  </si>
+  <si>
+    <t>-23:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>1955.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -864,207 +810,42 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c t="s" r="C10" s="8">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c t="s" r="H10" s="9">
-        <v>21</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c t="s" r="L10" s="10">
-        <v>13</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c t="s" r="N10" s="8">
+      <c r="P10" s="13">
+        <v>2235</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
         <v>25</v>
       </c>
-      <c r="O10" s="8"/>
-      <c t="s" r="P10" s="11">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
         <v>26</v>
       </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c t="s" r="C11" s="8">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
         <v>27</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c t="s" r="H11" s="9">
-        <v>28</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c t="s" r="L11" s="10">
-        <v>13</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c t="s" r="N11" s="8">
-        <v>29</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c t="s" r="P11" s="11">
-        <v>30</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="7">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c t="s" r="C12" s="8">
-        <v>31</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c t="s" r="H12" s="9">
-        <v>21</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c t="s" r="L12" s="10">
-        <v>13</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c t="s" r="N12" s="8">
-        <v>32</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c t="s" r="P12" s="11">
-        <v>33</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c t="s" r="C13" s="8">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c t="s" r="H13" s="9">
-        <v>35</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c t="s" r="L13" s="10">
-        <v>13</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c t="s" r="N13" s="8">
-        <v>36</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c t="s" r="P13" s="11">
-        <v>37</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c t="s" r="C14" s="8">
-        <v>38</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c t="s" r="H14" s="9">
-        <v>21</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c t="s" r="L14" s="10">
-        <v>39</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c t="s" r="N14" s="8">
-        <v>40</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c t="s" r="P14" s="11">
-        <v>41</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>332.82999999999998</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>43</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>44</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>45</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1088,35 +869,10 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,49 +44,103 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ORGASOL LIGHT CREAM</t>
-  </si>
-  <si>
-    <t>-1:0</t>
+    <t>AMARYL 1MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>94.0000</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISBRINA  CAPS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUICK NAIL  LOTION</t>
-  </si>
-  <si>
-    <t>-23:0</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>1955.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 10:04 AM</t>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 10:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -810,42 +864,207 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>2235</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>21</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
         <v>26</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>27</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>28</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>21</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>32</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>35</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>36</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>21</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>39</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>332.82999999999998</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>43</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>44</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>45</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +1088,35 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,103 +44,46 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>AMARYL 1MG 30 TAB</t>
+    <t>ORGASOL LIGHT CREAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>94.0000</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 10:11 AM</t>
+    <t xml:space="preserve">PRISBRINA  CAPS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUICK NAIL  LOTION</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>1955.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 10:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -847,7 +790,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -857,214 +800,49 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>23</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c t="s" r="C10" s="8">
+      <c r="P10" s="13">
+        <v>2235</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
         <v>24</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c t="s" r="H10" s="9">
-        <v>21</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c t="s" r="L10" s="10">
-        <v>13</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c t="s" r="N10" s="8">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
         <v>25</v>
       </c>
-      <c r="O10" s="8"/>
-      <c t="s" r="P10" s="11">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
         <v>26</v>
       </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c t="s" r="C11" s="8">
-        <v>27</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c t="s" r="H11" s="9">
-        <v>28</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c t="s" r="L11" s="10">
-        <v>13</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c t="s" r="N11" s="8">
-        <v>29</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c t="s" r="P11" s="11">
-        <v>30</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="7">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c t="s" r="C12" s="8">
-        <v>31</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c t="s" r="H12" s="9">
-        <v>21</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c t="s" r="L12" s="10">
-        <v>13</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c t="s" r="N12" s="8">
-        <v>32</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c t="s" r="P12" s="11">
-        <v>33</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c t="s" r="C13" s="8">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c t="s" r="H13" s="9">
-        <v>35</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c t="s" r="L13" s="10">
-        <v>13</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c t="s" r="N13" s="8">
-        <v>36</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c t="s" r="P13" s="11">
-        <v>37</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c t="s" r="C14" s="8">
-        <v>38</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c t="s" r="H14" s="9">
-        <v>21</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c t="s" r="L14" s="10">
-        <v>39</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c t="s" r="N14" s="8">
-        <v>40</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c t="s" r="P14" s="11">
-        <v>41</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>332.82999999999998</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>43</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>44</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>45</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1088,35 +866,10 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,46 +44,130 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ORGASOL LIGHT CREAM</t>
+    <t>AMARYL 1MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>94.0000</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>157.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISBRINA  CAPS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUICK NAIL  LOTION</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>1955.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 10:18 AM</t>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 10:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -757,7 +841,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -767,11 +851,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -783,7 +867,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -800,49 +884,313 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>2235</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>24</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>25</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>26</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>25</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>18</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>32</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>25</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>35</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>38</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>40</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>41</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>43</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>44</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>45</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>25</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>48</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>49</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>540.83000000000004</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>52</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>53</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>54</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -866,10 +1214,50 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,130 +44,49 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>AMARYL 1MG 30 TAB</t>
+    <t>ORGASOL LIGHT CREAM</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ANTINAL 200MG 24 CAPSULES</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>94.0000</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>157.00</t>
-  </si>
-  <si>
-    <t>157.0000</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 10:22 AM</t>
+    <t xml:space="preserve">PRISBRINA  CAPS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUICK NAIL  LOTION</t>
+  </si>
+  <si>
+    <t>-23:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>1955.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 10:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -841,7 +760,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -851,11 +770,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -867,14 +786,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -891,306 +810,42 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c t="s" r="C10" s="8">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c t="s" r="H10" s="9">
+      <c r="P10" s="13">
+        <v>2235</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
         <v>25</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c t="s" r="L10" s="10">
-        <v>13</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c t="s" r="N10" s="8">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
         <v>26</v>
       </c>
-      <c r="O10" s="8"/>
-      <c t="s" r="P10" s="11">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
         <v>27</v>
       </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c t="s" r="C11" s="8">
-        <v>28</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c t="s" r="H11" s="9">
-        <v>25</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c t="s" r="L11" s="10">
-        <v>13</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c t="s" r="N11" s="8">
-        <v>29</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c t="s" r="P11" s="11">
-        <v>30</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="7">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c t="s" r="C12" s="8">
-        <v>31</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c t="s" r="H12" s="9">
-        <v>18</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c t="s" r="L12" s="10">
-        <v>13</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c t="s" r="N12" s="8">
-        <v>32</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c t="s" r="P12" s="11">
-        <v>33</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c t="s" r="C13" s="8">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c t="s" r="H13" s="9">
-        <v>25</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c t="s" r="L13" s="10">
-        <v>13</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c t="s" r="N13" s="8">
-        <v>35</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c t="s" r="P13" s="11">
-        <v>36</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c t="s" r="C14" s="8">
-        <v>37</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c t="s" r="H14" s="9">
-        <v>12</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c t="s" r="L14" s="10">
-        <v>13</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c t="s" r="N14" s="8">
-        <v>38</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c t="s" r="P14" s="11">
-        <v>39</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="A15" s="7">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c t="s" r="C15" s="8">
-        <v>40</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c t="s" r="H15" s="9">
-        <v>16</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c t="s" r="L15" s="10">
-        <v>13</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c t="s" r="N15" s="8">
-        <v>41</v>
-      </c>
-      <c r="O15" s="8"/>
-      <c t="s" r="P15" s="11">
-        <v>42</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" s="7">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c t="s" r="C16" s="8">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c t="s" r="H16" s="9">
-        <v>44</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c t="s" r="L16" s="10">
-        <v>13</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c t="s" r="N16" s="8">
-        <v>45</v>
-      </c>
-      <c r="O16" s="8"/>
-      <c t="s" r="P16" s="11">
-        <v>46</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="A17" s="7">
-        <v>11</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c t="s" r="C17" s="8">
-        <v>47</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c t="s" r="H17" s="9">
-        <v>25</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c t="s" r="L17" s="10">
-        <v>48</v>
-      </c>
-      <c r="M17" s="10"/>
-      <c t="s" r="N17" s="8">
-        <v>49</v>
-      </c>
-      <c r="O17" s="8"/>
-      <c t="s" r="P17" s="11">
-        <v>50</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>540.83000000000004</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>52</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>53</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>54</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1214,50 +869,10 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 10:23 AM</t>
+    <t>Saturday, 24 May, 2025 10:31 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -47,7 +47,7 @@
     <t>ORGASOL LIGHT CREAM</t>
   </si>
   <si>
-    <t>-1:0</t>
+    <t>0:0</t>
   </si>
   <si>
     <t>0</t>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t xml:space="preserve">QUICK NAIL  LOTION</t>
-  </si>
-  <si>
-    <t>-23:0</t>
   </si>
   <si>
     <t>85.00</t>
@@ -793,7 +790,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -803,14 +800,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>23</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -821,7 +818,7 @@
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c t="s" r="A11" s="14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -829,13 +826,13 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c t="s" r="G11" s="15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c t="s" r="K11" s="17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -83,7 +83,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 10:31 AM</t>
+    <t>Saturday, 24 May, 2025 10:35 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -47,7 +47,7 @@
     <t>ORGASOL LIGHT CREAM</t>
   </si>
   <si>
-    <t>0:0</t>
+    <t>-1:0</t>
   </si>
   <si>
     <t>0</t>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">QUICK NAIL  LOTION</t>
+  </si>
+  <si>
+    <t>-23:0</t>
   </si>
   <si>
     <t>85.00</t>
@@ -790,7 +793,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -800,14 +803,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -818,7 +821,7 @@
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c t="s" r="A11" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -826,13 +829,13 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c t="s" r="G11" s="15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c t="s" r="K11" s="17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,46 +44,145 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ORGASOL LIGHT CREAM</t>
+    <t>AMARYL 1MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>94.0000</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>157.0000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>411.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISBRINA  CAPS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUICK NAIL  LOTION</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>1955.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 10:35 AM</t>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 10:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -757,7 +856,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -767,11 +866,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -783,7 +882,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -800,49 +899,379 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>2235</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>24</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>25</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>26</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>29</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>29</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>33</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>18</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>36</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>29</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>39</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>42</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>45</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>26</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>48</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>49</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>50</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>29</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>53</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>54</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>976.83000000000004</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>57</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>58</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>59</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -866,10 +1295,60 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -119,12 +131,6 @@
     <t>DICYNONE 250MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
     <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
   </si>
   <si>
@@ -182,7 +188,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 10:41 AM</t>
+    <t>Saturday, 24 May, 2025 10:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -889,7 +895,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -899,11 +905,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -915,14 +921,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -988,7 +994,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -998,11 +1004,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1014,14 +1020,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1031,11 +1037,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1047,14 +1053,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1064,14 +1070,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1080,14 +1086,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1097,11 +1103,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1113,14 +1119,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1130,11 +1136,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1146,7 +1152,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1163,14 +1169,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1179,14 +1185,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1196,11 +1202,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1212,66 +1218,99 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>54</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>33</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
         <v>55</v>
       </c>
-      <c t="s" r="Q19" s="12">
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>976.83000000000004</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>57</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c t="s" r="Q20" s="12">
         <v>58</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>990.69000000000005</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
         <v>59</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>60</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>61</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1345,10 +1384,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
@@ -128,6 +140,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DICYNONE 250MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -182,13 +203,22 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 10:42 AM</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 11:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -912,7 +942,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -928,7 +958,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -938,11 +968,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -954,14 +984,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1027,7 +1057,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1037,11 +1067,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1053,14 +1083,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1070,11 +1100,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1086,7 +1116,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1103,14 +1133,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1119,14 +1149,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1136,14 +1166,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1152,14 +1182,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1169,11 +1199,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1185,14 +1215,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1202,14 +1232,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1218,14 +1248,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1235,14 +1265,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1251,66 +1281,165 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>57</v>
       </c>
-      <c t="s" r="Q20" s="12">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>990.69000000000005</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>59</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>60</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>61</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>37</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>62</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>63</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>66</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>22</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>62</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>67</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>1067.5699999999999</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>69</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>70</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>71</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1389,10 +1518,25 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -218,7 +227,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 11:01 AM</t>
+    <t>Saturday, 24 May, 2025 11:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1354,24 +1363,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1380,66 +1389,99 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>68</v>
       </c>
-      <c t="s" r="Q23" s="12">
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>69</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>22</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>65</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>70</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>1067.5699999999999</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>69</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>70</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>71</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1204.0699999999999</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>72</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>73</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>74</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1533,10 +1575,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 11:09 AM</t>
+    <t>Saturday, 24 May, 2025 11:10 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,22 +44,40 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t xml:space="preserve">IDOMALTOL  IRON30MG 56CAPS</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>218.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>OCEAN FLUID+SPRAY</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
     <t>ORGASOL LIGHT CREAM</t>
   </si>
   <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
     <t>130.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
   </si>
   <si>
     <t xml:space="preserve">PRISBRINA  CAPS</t>
@@ -793,7 +811,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -803,49 +821,115 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>23</v>
       </c>
-      <c t="s" r="Q9" s="12">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>2235</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>26</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>27</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>28</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>2673</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>31</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>33</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +953,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,67 +44,250 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t xml:space="preserve">IDOMALTOL  IRON30MG 56CAPS</t>
-  </si>
-  <si>
-    <t>-1:0</t>
+    <t>AMARYL 1MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>94.0000</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>157.0000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>411.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>218.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>OCEAN FLUID+SPRAY</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>220.0000</t>
-  </si>
-  <si>
-    <t>ORGASOL LIGHT CREAM</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISBRINA  CAPS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUICK NAIL  LOTION</t>
-  </si>
-  <si>
-    <t>-23:0</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>1955.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 11:10 AM</t>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 11:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -778,7 +961,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -788,11 +971,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -804,14 +987,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -821,14 +1004,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -837,14 +1020,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -854,11 +1037,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -870,14 +1053,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -887,49 +1070,676 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>2673</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>31</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>32</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>33</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>37</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>41</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>33</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>51</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>27</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>56</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>57</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>60</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>62</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>41</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>66</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>69</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>71</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>16</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>72</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>74</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>16</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>34</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>75</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>76</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>77</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>78</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>79</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>80</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>81</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>82</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>84</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>41</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>85</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>86</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>22</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>85</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>90</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1347.9100000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>92</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>93</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>94</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -963,10 +1773,105 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -104,7 +104,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 11:11 AM</t>
+    <t>Saturday, 24 May, 2025 11:12 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,67 +44,250 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t xml:space="preserve">IDOMALTOL  IRON30MG 56CAPS</t>
-  </si>
-  <si>
-    <t>-1:0</t>
+    <t>AMARYL 1MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>94.0000</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>157.0000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>411.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>218.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>OCEAN FLUID+SPRAY</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>220.0000</t>
-  </si>
-  <si>
-    <t>ORGASOL LIGHT CREAM</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISBRINA  CAPS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUICK NAIL  LOTION</t>
-  </si>
-  <si>
-    <t>-23:0</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>1955.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 11:12 AM</t>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -778,7 +961,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -788,11 +971,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -804,14 +987,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -821,14 +1004,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -837,14 +1020,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -854,11 +1037,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -870,14 +1053,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -887,49 +1070,676 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>2673</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>31</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>32</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>33</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>37</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>41</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>33</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>51</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>27</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>56</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>57</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>60</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>62</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>41</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>66</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>69</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>71</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>16</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>72</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>74</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>16</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>34</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>75</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>76</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>77</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>78</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>79</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>80</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>81</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>82</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>84</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>41</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>85</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>86</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>22</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>85</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>90</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1347.9100000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>92</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>93</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>94</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -963,10 +1773,105 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -122,7 +122,7 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>33.00</t>
@@ -164,7 +164,7 @@
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>23.00</t>
@@ -179,7 +179,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>48.00</t>
@@ -191,6 +191,9 @@
     <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -248,7 +248,7 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>4:1</t>
   </si>
   <si>
     <t>46.00</t>
@@ -1357,7 +1357,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1367,11 +1367,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1416,14 +1416,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -287,7 +287,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 11:16 AM</t>
+    <t>Saturday, 24 May, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FEDESAFOROL DROP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>44.90</t>
+  </si>
+  <si>
+    <t>44.9000</t>
+  </si>
+  <si>
     <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
   </si>
   <si>
@@ -200,15 +212,27 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
@@ -266,9 +290,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -287,7 +308,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 11:18 AM</t>
+    <t>Saturday, 24 May, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1357,13 +1378,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1390,7 +1411,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1400,11 +1421,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1416,31 +1437,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1449,14 +1470,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1466,11 +1487,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1482,14 +1503,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1499,11 +1520,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1522,7 +1543,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1532,7 +1553,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1548,14 +1569,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1569,10 +1590,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1581,14 +1602,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1602,10 +1623,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1614,14 +1635,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1631,14 +1652,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1647,31 +1668,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1680,66 +1701,165 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>89</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>18</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>90</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>91</v>
       </c>
-      <c t="s" r="Q30" s="12">
+      <c t="s" r="Q31" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1347.9100000000001</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>92</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>41</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>60</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>93</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>94</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>96</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>22</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>60</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>97</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1498.81</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>99</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>100</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>101</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1868,10 +1988,25 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -239,6 +239,9 @@
     <t>100.00</t>
   </si>
   <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
@@ -287,16 +290,28 @@
     <t>136.5000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>فلامنجو شفرات للنساء</t>
@@ -308,7 +323,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 11:22 AM</t>
+    <t>Saturday, 24 May, 2025 11:25 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1543,7 +1558,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1557,10 +1572,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1569,7 +1584,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1586,11 +1601,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1602,7 +1617,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1619,11 +1634,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1635,7 +1650,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1668,14 +1683,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1685,7 +1700,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1701,14 +1716,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1718,7 +1733,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1734,7 +1749,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1751,11 +1766,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1767,31 +1782,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1800,14 +1815,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1817,49 +1832,82 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>101</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>22</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>60</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>102</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1498.81</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>99</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>100</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>101</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1592.1300000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>104</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>105</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>106</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2003,10 +2051,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -134,9 +146,6 @@
     <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>188.00</t>
   </si>
   <si>
@@ -272,6 +281,15 @@
     <t>240.00</t>
   </si>
   <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -288,6 +306,15 @@
   </si>
   <si>
     <t>136.5000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -1096,7 +1123,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1106,14 +1133,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1122,14 +1149,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1179,7 +1206,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1212,7 +1239,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1228,7 +1255,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1261,7 +1288,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1294,7 +1321,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1304,14 +1331,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1320,14 +1347,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1337,14 +1364,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1353,14 +1380,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1370,11 +1397,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1386,31 +1413,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1419,28 +1446,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1452,20 +1479,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1492,17 +1519,17 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1525,7 +1552,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1535,11 +1562,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1551,14 +1578,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1568,11 +1595,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1591,7 +1618,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1624,7 +1651,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1667,14 +1694,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,14 +1710,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1700,11 +1727,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1737,7 +1764,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1756,7 +1783,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1803,7 +1830,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1815,31 +1842,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1848,66 +1875,165 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>102</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>103</v>
       </c>
-      <c t="s" r="Q34" s="12">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>13</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>104</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>106</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>30</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>63</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>107</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>110</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>22</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>63</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>111</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1592.1300000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>104</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>105</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>106</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1764.1300000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>113</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>114</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>115</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2056,10 +2182,25 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -134,7 +134,7 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>33.00</t>
@@ -173,7 +173,7 @@
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>23.00</t>
@@ -188,7 +188,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>6:1</t>
   </si>
   <si>
     <t>48.00</t>
@@ -212,9 +212,6 @@
     <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>46.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
   </si>
   <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
@@ -1486,7 +1486,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1496,11 +1496,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1529,11 +1529,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1545,14 +1545,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1595,11 +1595,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1611,14 +1611,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1628,11 +1628,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1694,11 +1694,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1743,14 +1743,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1760,11 +1760,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1809,14 +1809,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1826,14 +1826,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2003,7 +2003,7 @@
     </row>
     <row r="38" ht="24.75" customHeight="1">
       <c r="P38" s="13">
-        <v>1764.1300000000001</v>
+        <v>1741.1300000000001</v>
       </c>
       <c r="Q38" s="13"/>
     </row>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -350,7 +350,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 11:25 AM</t>
+    <t>Saturday, 24 May, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>16.3200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخاخ ريد الكبير </t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -1948,7 +1954,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1958,14 +1964,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1974,14 +1980,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1991,49 +1997,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>112</v>
       </c>
-      <c t="s" r="Q37" s="12">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>22</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>63</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>113</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1741.1300000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>113</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>114</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1841.1300000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>115</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>116</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>117</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2197,10 +2236,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t xml:space="preserve">IDOMALTOL  IRON30MG 56CAPS</t>
+    <t>ORGASOL LIGHT CREAM</t>
   </si>
   <si>
     <t>-1:0</t>
@@ -53,31 +53,13 @@
     <t>0</t>
   </si>
   <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>218.0000</t>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
   </si>
   <si>
     <t>1:0</t>
-  </si>
-  <si>
-    <t>OCEAN FLUID+SPRAY</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>220.0000</t>
-  </si>
-  <si>
-    <t>ORGASOL LIGHT CREAM</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
   </si>
   <si>
     <t xml:space="preserve">PRISBRINA  CAPS</t>
@@ -811,7 +793,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -821,115 +803,49 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c t="s" r="C10" s="8">
-        <v>23</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c t="s" r="H10" s="9">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c t="s" r="L10" s="10">
-        <v>13</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c t="s" r="N10" s="8">
-        <v>24</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c t="s" r="P10" s="11">
+      <c r="P10" s="13">
+        <v>2235</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
         <v>25</v>
       </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c t="s" r="C11" s="8">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
         <v>26</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c t="s" r="H11" s="9">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
         <v>27</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c t="s" r="L11" s="10">
-        <v>13</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c t="s" r="N11" s="8">
-        <v>28</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c t="s" r="P11" s="11">
-        <v>29</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>2673</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>31</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>32</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>33</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -953,20 +869,10 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,49 +44,319 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ORGASOL LIGHT CREAM</t>
-  </si>
-  <si>
-    <t>-1:0</t>
+    <t>AMARYL 1MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>94.0000</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>FEDESAFOROL DROP</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISBRINA  CAPS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUICK NAIL  LOTION</t>
-  </si>
-  <si>
-    <t>-23:0</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>1955.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 11:32 AM</t>
+    <t>44.90</t>
+  </si>
+  <si>
+    <t>44.9000</t>
+  </si>
+  <si>
+    <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>157.0000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>411.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخاخ ريد الكبير </t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 11:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,7 +1030,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -770,11 +1040,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -786,14 +1056,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -803,49 +1073,1006 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>37</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>30</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>30</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>37</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>54</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>18</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>27</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>59</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>60</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>62</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>30</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>63</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>64</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>12</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>30</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>63</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>73</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>14</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>30</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>70</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>76</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>30</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>77</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>79</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>80</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>16</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>83</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
         <v>23</v>
       </c>
-      <c t="s" r="Q9" s="12">
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>85</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>16</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>38</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>2235</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>86</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>87</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>88</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>89</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>30</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>90</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
         <v>26</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>92</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>93</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>13</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>94</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
         <v>27</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>96</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>18</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>97</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>99</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>12</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>100</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>102</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>103</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>13</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>104</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>106</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>107</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>63</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>77</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>108</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>30</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>63</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>109</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>112</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>22</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>63</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>113</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1841.1300000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>115</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>116</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>117</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +2096,155 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
   </si>
   <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
@@ -1360,7 +1369,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1370,11 +1379,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1386,14 +1395,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1403,14 +1412,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1419,14 +1428,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1436,11 +1445,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1452,31 +1461,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1485,20 +1494,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1525,13 +1534,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1558,17 +1567,17 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1591,7 +1600,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1601,11 +1610,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1617,7 +1626,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1634,11 +1643,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1657,7 +1666,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1690,7 +1699,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1733,14 +1742,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1766,11 +1775,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1789,7 +1798,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1799,14 +1808,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1822,7 +1831,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1832,14 +1841,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1872,7 +1881,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1888,7 +1897,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1905,7 +1914,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1921,7 +1930,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1931,11 +1940,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1947,31 +1956,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1980,31 +1989,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2013,66 +2022,99 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>114</v>
       </c>
-      <c t="s" r="Q38" s="12">
-        <v>12</v>
-      </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1841.1300000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>115</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>22</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>66</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>116</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>117</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1868.1300000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>118</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>119</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>120</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2241,10 +2283,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 11:45 AM</t>
+    <t>Saturday, 24 May, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -236,6 +236,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>349.0000</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -365,7 +374,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 11:55 AM</t>
+    <t>Saturday, 24 May, 2025 11:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1609,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1610,7 +1619,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1633,7 +1642,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1643,11 +1652,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1659,7 +1668,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1676,11 +1685,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1699,7 +1708,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1732,7 +1741,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1775,14 +1784,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,14 +1800,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1808,11 +1817,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1831,7 +1840,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1841,14 +1850,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1864,7 +1873,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,14 +1883,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,14 +1899,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1914,7 +1923,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1930,7 +1939,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1947,7 +1956,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1963,7 +1972,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1973,11 +1982,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1989,31 +1998,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2022,14 +2031,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2039,14 +2048,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2055,14 +2064,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2072,49 +2081,82 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>117</v>
       </c>
-      <c t="s" r="Q39" s="12">
-        <v>12</v>
-      </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1868.1300000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>118</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>22</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>66</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>119</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>120</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2217.1300000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>121</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>122</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>123</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2288,10 +2330,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -374,7 +374,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 11:57 AM</t>
+    <t>Saturday, 24 May, 2025 12:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -122,171 +122,186 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>94.0000</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>50.00</t>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>FEDESAFOROL DROP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>44.90</t>
+  </si>
+  <si>
+    <t>44.9000</t>
+  </si>
+  <si>
+    <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>349.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>157.0000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>411.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>94.0000</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>FEDESAFOROL DROP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>44.90</t>
-  </si>
-  <si>
-    <t>44.9000</t>
-  </si>
-  <si>
-    <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYPSUM  SYRUP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>349.00</t>
-  </si>
-  <si>
-    <t>349.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>157.00</t>
-  </si>
-  <si>
-    <t>157.0000</t>
-  </si>
-  <si>
-    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>411.00</t>
-  </si>
-  <si>
-    <t>411.0000</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -347,6 +362,15 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">بخاخ ريد الكبير </t>
   </si>
   <si>
@@ -374,7 +398,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 12:01 PM</t>
+    <t>Saturday, 24 May, 2025 12:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1230,7 +1254,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1345,7 +1369,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1355,11 +1379,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1371,7 +1395,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1388,11 +1412,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1404,14 +1428,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1421,11 +1445,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1437,7 +1461,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1470,14 +1494,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1487,11 +1511,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1503,20 +1527,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1527,7 +1551,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1543,21 +1567,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1569,28 +1593,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1602,7 +1626,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1615,15 +1639,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1635,14 +1659,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1652,11 +1676,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1668,14 +1692,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1685,11 +1709,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1701,7 +1725,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1718,11 +1742,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1734,14 +1758,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,11 +1775,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1767,14 +1791,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1784,11 +1808,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1800,7 +1824,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1817,14 +1841,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,14 +1857,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1850,11 +1874,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1866,14 +1890,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1883,14 +1907,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1899,14 +1923,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1916,14 +1940,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1932,14 +1956,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1949,14 +1973,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1965,14 +1989,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1982,14 +2006,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1998,14 +2022,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2015,11 +2039,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2031,31 +2055,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2064,31 +2088,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2097,66 +2121,132 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2217.1300000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>121</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>122</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>30</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>70</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>123</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>126</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>22</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>70</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>127</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2315.1300000000001</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>129</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>130</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>131</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2335,10 +2425,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -398,7 +398,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 12:11 PM</t>
+    <t>Saturday, 24 May, 2025 12:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>44.9000</t>
   </si>
   <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
   </si>
   <si>
@@ -296,6 +305,15 @@
     <t>411.0000</t>
   </si>
   <si>
+    <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -386,9 +404,6 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -398,7 +413,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 12:12 PM</t>
+    <t>Saturday, 24 May, 2025 12:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1615,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1610,7 +1625,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1633,13 +1648,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1672,7 +1687,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1699,7 +1714,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1709,7 +1724,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1732,7 +1747,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1742,11 +1757,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1758,7 +1773,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1775,11 +1790,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1798,7 +1813,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1831,7 +1846,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1874,14 +1889,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1890,14 +1905,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1911,10 +1926,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1923,14 +1938,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1940,14 +1955,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1977,10 +1992,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1989,14 +2004,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2006,11 +2021,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2022,14 +2037,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2046,7 +2061,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2062,7 +2077,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2072,14 +2087,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2088,31 +2103,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2121,31 +2136,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2154,14 +2169,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2171,14 +2186,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2194,7 +2209,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2204,49 +2219,115 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>128</v>
       </c>
-      <c t="s" r="Q42" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2315.1300000000001</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>30</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>70</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>129</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>130</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c t="s" r="Q43" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>131</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>22</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>70</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>132</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2382.1300000000001</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>134</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>135</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>136</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2435,10 +2516,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -230,6 +230,18 @@
     <t>44.9000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
@@ -296,6 +308,12 @@
     <t>157.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
   </si>
   <si>
@@ -323,9 +341,6 @@
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>240.00</t>
   </si>
   <si>
@@ -392,16 +407,13 @@
     <t xml:space="preserve">بخاخ ريد الكبير </t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>فلامنجو شفرات للنساء</t>
@@ -413,7 +425,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 12:17 PM</t>
+    <t>Saturday, 24 May, 2025 12:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1625,11 +1637,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1641,14 +1653,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1658,11 +1670,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1674,28 +1686,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1707,7 +1719,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1720,15 +1732,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1740,14 +1752,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1757,11 +1769,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1773,14 +1785,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1790,11 +1802,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1806,7 +1818,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1823,11 +1835,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1839,14 +1851,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1856,11 +1868,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1872,14 +1884,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1889,11 +1901,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1905,14 +1917,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1922,11 +1934,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1955,14 +1967,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1992,10 +2004,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2004,14 +2016,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2021,14 +2033,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2044,7 +2056,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2054,14 +2066,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2070,14 +2082,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2087,11 +2099,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2103,14 +2115,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2120,14 +2132,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2136,14 +2148,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2153,14 +2165,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2169,31 +2181,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2202,31 +2214,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2242,7 +2254,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2259,7 +2271,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2275,7 +2287,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2285,49 +2297,115 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>132</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>30</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>70</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>133</v>
       </c>
-      <c t="s" r="Q44" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2382.1300000000001</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>134</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>135</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>22</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>70</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>136</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2495.1300000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>138</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>139</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>140</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2526,10 +2604,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -425,7 +425,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 12:18 PM</t>
+    <t>Saturday, 24 May, 2025 12:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -164,13 +164,16 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>1:3</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>DEXATROL EYE/EAR DROPS 5 ML</t>
@@ -281,12 +284,18 @@
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
   </si>
   <si>
@@ -311,7 +320,13 @@
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>OLAPEX 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>52.8000</t>
   </si>
   <si>
     <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
@@ -413,7 +428,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>فلامنجو شفرات للنساء</t>
@@ -425,7 +443,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 12:53 PM</t>
+    <t>Saturday, 24 May, 2025 12:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1413,7 +1431,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1422,7 +1440,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1439,11 +1457,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1455,14 +1473,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1472,11 +1490,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1488,7 +1506,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1521,14 +1539,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1538,11 +1556,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1554,7 +1572,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1571,11 +1589,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1587,7 +1605,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1600,15 +1618,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1620,14 +1638,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1637,11 +1655,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1653,14 +1671,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1674,7 +1692,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1686,7 +1704,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1703,11 +1721,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1719,7 +1737,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1732,15 +1750,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1752,7 +1770,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1769,11 +1787,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1785,14 +1803,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1831,15 +1849,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1851,7 +1869,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1868,11 +1886,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1891,7 +1909,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1924,7 +1942,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1934,11 +1952,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1950,14 +1968,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1967,11 +1985,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1983,14 +2001,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2000,14 +2018,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2016,7 +2034,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2033,14 +2051,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2056,7 +2074,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2070,10 +2088,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2082,14 +2100,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2099,14 +2117,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2122,7 +2140,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2132,14 +2150,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2148,14 +2166,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2165,11 +2183,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2181,14 +2199,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2198,14 +2216,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2214,14 +2232,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2231,14 +2249,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2247,31 +2265,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2280,31 +2298,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2313,31 +2331,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2346,66 +2364,132 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>137</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2495.1300000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>30</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>71</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>138</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>139</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c t="s" r="Q47" s="12">
         <v>140</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>141</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>22</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>71</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>142</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2621.8099999999999</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>144</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>145</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>146</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2614,10 +2698,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -443,7 +443,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 12:56 PM</t>
+    <t>Saturday, 24 May, 2025 12:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,12 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALWAYS ماكس طويل</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMARYL 1MG 30 TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -224,9 +239,6 @@
     <t>FEDESAFOROL DROP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>44.90</t>
   </si>
   <si>
@@ -290,12 +302,6 @@
     <t>MALCON MASSAGE CREAM</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
   </si>
   <si>
@@ -386,7 +392,7 @@
     <t>136.50</t>
   </si>
   <si>
-    <t>136.5000</t>
+    <t>181.5450</t>
   </si>
   <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
@@ -443,7 +449,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 12:59 PM</t>
+    <t>Saturday, 24 May, 2025 1:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1117,13 +1123,13 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
@@ -1134,7 +1140,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1143,31 +1149,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1176,28 +1182,28 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1209,31 +1215,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1242,28 +1248,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1275,31 +1281,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1308,31 +1314,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1341,28 +1347,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1374,31 +1380,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1407,31 +1413,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1447,24 +1453,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1473,31 +1479,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1506,28 +1512,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1539,31 +1545,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1572,31 +1578,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1605,31 +1611,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1638,14 +1644,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1662,7 +1668,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1684,18 +1690,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1704,31 +1710,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1737,31 +1743,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1770,14 +1776,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1787,14 +1793,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1803,31 +1809,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1836,31 +1842,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1869,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1886,14 +1892,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1902,31 +1908,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1935,31 +1941,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1968,31 +1974,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2001,28 +2007,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2034,31 +2040,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,31 +2073,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2100,7 +2106,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2113,11 +2119,11 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2140,24 +2146,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2173,13 +2179,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2187,10 +2193,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,31 +2205,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2232,31 +2238,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2265,31 +2271,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2298,31 +2304,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2331,31 +2337,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2364,31 +2370,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2397,31 +2403,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2430,66 +2436,99 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>143</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2621.8099999999999</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>27</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>13</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>144</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>145</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2726.855</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
         <v>146</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>147</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>148</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2708,10 +2747,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 1:09 PM</t>
+    <t>Saturday, 24 May, 2025 2:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -101,6 +101,12 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:-4</t>
+  </si>
+  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
@@ -305,6 +311,15 @@
     <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
   </si>
   <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
@@ -449,7 +464,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 2:18 PM</t>
+    <t>Saturday, 24 May, 2025 3:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1232,14 +1247,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1248,14 +1263,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1265,14 +1280,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1281,14 +1296,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1298,14 +1313,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1314,14 +1329,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1331,14 +1346,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1347,14 +1362,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1364,11 +1379,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1380,14 +1395,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1397,14 +1412,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1413,14 +1428,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1430,11 +1445,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1446,14 +1461,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1463,14 +1478,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1479,14 +1494,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1496,14 +1511,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1512,14 +1527,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1529,11 +1544,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1545,14 +1560,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1562,14 +1577,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1578,14 +1593,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1595,11 +1610,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1611,14 +1626,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1628,11 +1643,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1644,31 +1659,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1677,28 +1692,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1710,14 +1725,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1727,11 +1742,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1743,14 +1758,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1760,11 +1775,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1776,28 +1791,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1809,28 +1824,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1842,14 +1857,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1859,7 +1874,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1882,21 +1897,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1908,28 +1923,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1941,14 +1956,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1958,11 +1973,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1974,14 +1989,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1991,14 +2006,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2007,14 +2022,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2024,11 +2039,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2040,14 +2055,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2057,14 +2072,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2073,14 +2088,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2090,11 +2105,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2106,14 +2121,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2123,14 +2138,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2139,7 +2154,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2156,14 +2171,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2179,7 +2194,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2193,10 +2208,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2205,14 +2220,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2222,14 +2237,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2245,7 +2260,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2255,14 +2270,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,14 +2286,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2288,14 +2303,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2304,14 +2319,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2321,14 +2336,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2337,14 +2352,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2354,14 +2369,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2370,31 +2385,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2403,31 +2418,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2436,14 +2451,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2453,14 +2468,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2476,7 +2491,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2486,49 +2501,115 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>144</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>37</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>13</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>145</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2726.855</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>146</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c t="s" r="Q50" s="12">
         <v>147</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>148</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>27</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>13</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>149</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2850.71</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>151</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>152</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>153</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2752,10 +2833,20 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 3:41 PM</t>
+    <t>Saturday, 24 May, 2025 4:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 4:08 PM</t>
+    <t>Saturday, 24 May, 2025 4:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>CONA-ADIONE 10MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -359,6 +368,15 @@
     <t>411.0000</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
   </si>
   <si>
@@ -443,6 +461,12 @@
     <t xml:space="preserve">بخاخ ريد الكبير </t>
   </si>
   <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -464,7 +488,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 4:09 PM</t>
+    <t>Saturday, 24 May, 2025 5:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1369,7 +1393,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1379,11 +1403,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1395,14 +1419,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1412,11 +1436,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1428,14 +1452,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1452,7 +1476,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1501,7 +1525,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1511,14 +1535,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1527,14 +1551,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1544,14 +1568,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1567,7 +1591,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1577,11 +1601,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1593,14 +1617,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1610,14 +1634,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1626,14 +1650,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1643,11 +1667,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1659,14 +1683,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1699,13 +1723,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1716,7 +1740,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1732,21 +1756,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1758,14 +1782,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1775,7 +1799,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1798,7 +1822,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1808,7 +1832,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1831,13 +1855,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1870,7 +1894,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1897,7 +1921,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,11 +1931,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1923,28 +1947,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1956,7 +1980,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1969,15 +1993,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1989,14 +2013,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2006,14 +2030,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2029,7 +2053,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2046,7 +2070,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2062,7 +2086,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2095,7 +2119,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2105,11 +2129,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2121,14 +2145,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2138,14 +2162,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2178,7 +2202,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2194,7 +2218,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2227,7 +2251,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,11 +2261,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2253,14 +2277,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2270,14 +2294,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2286,14 +2310,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2303,14 +2327,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,14 +2343,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2340,10 +2364,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2352,14 +2376,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2369,14 +2393,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,14 +2409,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2409,7 +2433,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2425,7 +2449,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2435,14 +2459,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2451,31 +2475,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2484,31 +2508,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2517,14 +2541,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2534,14 +2558,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2550,14 +2574,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2567,49 +2591,148 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>150</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2850.71</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
         <v>151</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>13</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>85</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>152</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>37</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>13</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>153</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>156</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>27</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>13</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>157</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2967.71</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>159</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>160</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>161</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2843,10 +2966,25 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -89,6 +89,33 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>-30.6900</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>-50.9850</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -152,9 +179,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -176,10 +200,7 @@
     <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
   </si>
   <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>94.0000</t>
+    <t>100.00</t>
   </si>
   <si>
     <t>DAFLON 500MG 30 F.C. TABS</t>
@@ -320,6 +341,12 @@
     <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
   </si>
   <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -332,9 +359,6 @@
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
     <t>100.0000</t>
   </si>
   <si>
@@ -464,9 +488,6 @@
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
-    <t>-1:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -488,7 +509,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 5:09 PM</t>
+    <t>Saturday, 24 May, 2025 5:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1245,7 +1266,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1254,14 +1275,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1271,14 +1292,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1287,14 +1308,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1304,14 +1325,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1320,14 +1341,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1337,11 +1358,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1353,14 +1374,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1370,11 +1391,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1386,14 +1407,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1403,11 +1424,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1419,14 +1440,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1436,14 +1457,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1452,14 +1473,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1469,11 +1490,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1485,14 +1506,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1502,14 +1523,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1518,14 +1539,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1535,14 +1556,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1551,14 +1572,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1568,14 +1589,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1584,14 +1605,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1601,14 +1622,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1617,14 +1638,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1634,14 +1655,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1657,7 +1678,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1667,14 +1688,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1683,14 +1704,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1700,14 +1721,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1716,14 +1737,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1733,11 +1754,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1756,24 +1777,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1782,14 +1803,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1806,7 +1827,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1822,17 +1843,17 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1855,7 +1876,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1865,11 +1886,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1881,28 +1902,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1914,14 +1935,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1931,11 +1952,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1947,28 +1968,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1980,28 +2001,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2013,14 +2034,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2030,11 +2051,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2046,31 +2067,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2079,14 +2100,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2096,11 +2117,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2129,14 +2150,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2145,14 +2166,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2162,11 +2183,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2211,14 +2232,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2228,11 +2249,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2261,11 +2282,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2277,14 +2298,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2294,11 +2315,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2310,14 +2331,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2327,11 +2348,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2376,14 +2397,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2393,14 +2414,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2442,14 +2463,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2459,14 +2480,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2475,14 +2496,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2541,31 +2562,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2574,31 +2595,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2624,11 +2645,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2657,14 +2678,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2690,49 +2711,115 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2967.71</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>159</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>46</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>13</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>160</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>161</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>163</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>36</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>13</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>164</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2875.0349999999999</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>166</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>167</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>168</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2981,10 +3068,20 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -176,6 +188,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -224,9 +245,6 @@
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DEXATROL EYE/EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -272,6 +290,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>FEDESAFOROL DROP</t>
   </si>
   <si>
@@ -335,6 +362,9 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>MALCON MASSAGE CREAM</t>
   </si>
   <si>
@@ -416,6 +446,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -509,7 +542,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 5:40 PM</t>
+    <t>Saturday, 24 May, 2025 5:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1266,7 +1299,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1275,14 +1308,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1292,14 +1325,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1332,7 +1365,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1358,11 +1391,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1374,14 +1407,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1391,14 +1424,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1431,7 +1464,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1447,7 +1480,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1457,14 +1490,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1473,7 +1506,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1490,14 +1523,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1506,14 +1539,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1523,11 +1556,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1539,14 +1572,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1563,7 +1596,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1579,7 +1612,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1593,10 +1626,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1605,14 +1638,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1622,14 +1655,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1638,14 +1671,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1655,14 +1688,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1671,14 +1704,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1688,14 +1721,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1704,14 +1737,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1721,14 +1754,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1737,14 +1770,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1754,14 +1787,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1770,14 +1803,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1787,14 +1820,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1803,14 +1836,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1820,11 +1853,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1836,20 +1869,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1860,7 +1893,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1876,7 +1909,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1886,14 +1919,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1902,14 +1935,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,14 +1952,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1935,28 +1968,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1968,20 +2001,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2008,7 +2041,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2018,7 +2051,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2041,7 +2074,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2051,11 +2084,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2067,14 +2100,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2084,11 +2117,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2100,14 +2133,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2117,11 +2150,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2133,7 +2166,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2150,14 +2183,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2166,14 +2199,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2183,14 +2216,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2199,28 +2232,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2232,14 +2265,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,11 +2282,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2265,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2282,11 +2315,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2298,14 +2331,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,7 +2348,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2338,7 +2371,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2355,7 +2388,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2371,7 +2404,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,11 +2414,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2397,7 +2430,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2414,11 +2447,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2430,14 +2463,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2447,14 +2480,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2470,7 +2503,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2487,7 +2520,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2503,7 +2536,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,14 +2546,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2529,14 +2562,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2546,14 +2579,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2562,14 +2595,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,11 +2612,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2595,14 +2628,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,11 +2645,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2628,28 +2661,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2661,31 +2694,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2694,31 +2727,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2727,31 +2760,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2760,66 +2793,231 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>165</v>
       </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2875.0349999999999</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>36</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>13</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>166</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>167</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>168</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>100</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>13</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>70</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>169</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>36</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>13</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>101</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>170</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>50</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>13</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>171</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>174</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>40</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>13</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>175</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3103.5749999999998</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>177</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>178</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>179</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3078,10 +3276,35 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -92,318 +92,342 @@
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>-30.6900</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>-50.9850</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:-4</t>
+  </si>
+  <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CONA-ADIONE 10MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>-30.6900</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>BEPRA 20MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>154.50</t>
-  </si>
-  <si>
-    <t>-50.9850</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:-4</t>
-  </si>
-  <si>
-    <t>CETAL 1000MG 15 TABS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>CONA-ADIONE 10MG 30 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>FEDESAFOROL DROP</t>
+  </si>
+  <si>
+    <t>44.90</t>
+  </si>
+  <si>
+    <t>44.9000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>349.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>157.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
   </si>
   <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>FEDESAFOROL DROP</t>
-  </si>
-  <si>
-    <t>44.90</t>
-  </si>
-  <si>
-    <t>44.9000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>FUSI-ZON CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYPSUM  SYRUP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>349.00</t>
-  </si>
-  <si>
-    <t>349.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>MALCON MASSAGE CREAM</t>
-  </si>
-  <si>
-    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>193.50</t>
-  </si>
-  <si>
-    <t>63.8550</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>157.00</t>
-  </si>
-  <si>
-    <t>157.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
     <t>OLAPEX 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -464,6 +488,12 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -494,6 +524,12 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -518,6 +554,15 @@
     <t xml:space="preserve">بخاخ ريد الكبير </t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
@@ -542,7 +587,16 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 5:45 PM</t>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 5:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1546,7 +1600,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1678,7 +1732,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1711,7 +1765,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1777,7 +1831,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1810,7 +1864,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1820,11 +1874,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1836,14 +1890,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1853,14 +1907,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1869,14 +1923,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1886,11 +1940,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1909,7 +1963,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1919,11 +1973,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1935,7 +1989,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1952,11 +2006,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1968,31 +2022,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2001,20 +2055,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2041,7 +2095,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2051,11 +2105,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2067,14 +2121,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2107,17 +2161,17 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2140,7 +2194,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2173,21 +2227,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2199,14 +2253,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2216,14 +2270,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2232,28 +2286,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2265,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2282,14 +2336,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2298,31 +2352,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2338,7 +2392,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2348,11 +2402,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2364,14 +2418,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2381,14 +2435,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2397,14 +2451,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2414,11 +2468,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2430,14 +2484,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2447,14 +2501,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2470,7 +2524,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2503,7 +2557,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2513,14 +2567,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2529,14 +2583,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2546,14 +2600,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2562,7 +2616,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2579,14 +2633,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2602,7 +2656,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2612,11 +2666,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2628,14 +2682,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2645,14 +2699,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2661,14 +2715,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2678,14 +2732,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2694,14 +2748,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2711,14 +2765,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2727,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2744,14 +2798,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2760,14 +2814,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2777,14 +2831,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2793,14 +2847,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2810,14 +2864,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2826,31 +2880,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2859,31 +2913,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2892,31 +2946,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2925,7 +2979,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2938,18 +2992,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2958,20 +3012,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -2982,42 +3036,273 @@
         <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3103.5749999999998</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>177</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>36</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>13</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>178</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>179</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>180</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>106</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>13</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>70</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>181</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>50</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>13</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>182</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>184</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>16</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>13</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>107</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>185</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>50</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>13</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>186</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>189</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>40</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>13</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>190</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>192</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>50</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>13</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>193</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3347.5749999999998</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>195</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>196</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>197</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3301,10 +3586,45 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -596,7 +596,7 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 5:57 PM</t>
+    <t>Saturday, 24 May, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -104,133 +104,145 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>-50.9850</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:-4</t>
+  </si>
+  <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CONA-ADIONE 10MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>-30.6900</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>BEPRA 20MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>154.50</t>
-  </si>
-  <si>
-    <t>-50.9850</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:-4</t>
-  </si>
-  <si>
-    <t>CETAL 1000MG 15 TABS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>CONA-ADIONE 10MG 30 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
   </si>
   <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
@@ -278,9 +290,6 @@
     <t>DICYNONE 250MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -293,6 +302,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
@@ -380,6 +398,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -503,9 +530,6 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>0.0000</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -530,6 +554,12 @@
     <t>84.00</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -572,10 +602,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>11:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>فلامنجو شفرات للنساء</t>
@@ -596,7 +623,7 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 6:01 PM</t>
+    <t>Saturday, 24 May, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1419,7 +1446,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1428,14 +1455,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1445,11 +1472,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1461,14 +1488,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1494,14 +1521,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1511,11 +1538,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1527,14 +1554,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1600,7 +1627,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1815,7 +1842,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1831,7 +1858,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1841,14 +1868,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1857,14 +1884,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1874,11 +1901,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1890,14 +1917,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1940,14 +1967,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1956,14 +1983,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,11 +2000,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1989,14 +2016,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2029,7 +2056,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2062,13 +2089,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2079,7 +2106,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2095,7 +2122,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2109,10 +2136,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2121,20 +2148,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2161,7 +2188,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2171,11 +2198,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2187,14 +2214,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2227,17 +2254,17 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2260,7 +2287,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2293,21 +2320,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2319,14 +2346,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,14 +2363,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2352,28 +2379,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2385,14 +2412,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,11 +2429,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2418,14 +2445,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,11 +2462,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2451,28 +2478,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2484,14 +2511,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,11 +2528,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2517,14 +2544,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2561,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,14 +2577,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,11 +2594,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2583,14 +2610,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2600,14 +2627,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2616,14 +2643,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2633,11 +2660,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2649,14 +2676,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,14 +2693,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2689,7 +2716,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2706,7 +2733,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2732,14 +2759,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2748,14 +2775,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,11 +2792,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2781,14 +2808,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,14 +2825,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2814,14 +2841,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2831,14 +2858,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2847,14 +2874,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2864,14 +2891,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2880,14 +2907,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2897,14 +2924,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2920,7 +2947,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2937,7 +2964,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2953,7 +2980,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2963,14 +2990,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2979,14 +3006,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3000,10 +3027,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3019,7 +3046,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3029,14 +3056,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3045,31 +3072,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3078,28 +3105,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3118,21 +3145,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3144,31 +3171,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3177,14 +3204,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3194,14 +3221,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3210,14 +3237,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3227,11 +3254,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3243,14 +3270,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3260,49 +3287,181 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>194</v>
       </c>
-      <c t="s" r="Q68" s="12">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>16</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>13</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>113</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>195</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>34</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>13</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>196</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>198</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>41</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>13</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>199</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>201</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>34</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>13</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>202</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3347.5749999999998</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>195</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>196</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>197</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3507.23</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>204</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>205</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>206</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3621,10 +3780,30 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -623,7 +623,7 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 6:07 PM</t>
+    <t>Saturday, 24 May, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -302,6 +302,9 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -482,6 +485,12 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>OPTEST 0.05% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
     <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
   </si>
   <si>
@@ -623,7 +632,7 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 6:13 PM</t>
+    <t>Saturday, 24 May, 2025 6:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2056,7 +2065,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2082,14 +2091,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2099,11 +2108,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2115,7 +2124,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2132,11 +2141,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2148,31 +2157,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2181,28 +2190,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2231,11 +2240,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2264,11 +2273,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2297,11 +2306,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2313,28 +2322,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2346,7 +2355,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2359,15 +2368,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2396,11 +2405,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2429,11 +2438,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2485,24 +2494,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2518,21 +2527,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2617,7 +2626,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2627,11 +2636,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2660,11 +2669,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2693,11 +2702,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2742,7 +2751,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2808,7 +2817,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2874,14 +2883,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2891,14 +2900,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2914,7 +2923,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2924,11 +2933,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2947,7 +2956,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2957,14 +2966,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2990,14 +2999,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3023,14 +3032,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3039,14 +3048,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3072,14 +3081,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3089,14 +3098,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3105,14 +3114,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3122,14 +3131,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3155,14 +3164,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3204,28 +3213,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3237,31 +3246,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3287,11 +3296,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3303,14 +3312,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3320,11 +3329,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3336,7 +3345,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3386,11 +3395,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3402,7 +3411,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3419,49 +3428,115 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>201</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>41</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>13</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>202</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>203</v>
       </c>
-      <c t="s" r="Q72" s="12">
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>204</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>34</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>13</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>205</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3507.23</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>204</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>205</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>206</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3579.23</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>207</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>208</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>209</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3800,10 +3875,20 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -437,6 +437,9 @@
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
@@ -566,7 +569,7 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>72.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -599,7 +602,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>حنه فاتيكا اسود 1 كيس</t>
@@ -614,6 +617,15 @@
     <t>12:0</t>
   </si>
   <si>
+    <t>شامبو جونسون وسط</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -632,7 +644,13 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 6:16 PM</t>
+    <t>معجون حلاقه 55555</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2659,7 +2677,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,11 +2687,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2685,14 +2703,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,11 +2720,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2718,14 +2736,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2735,11 +2753,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2751,14 +2769,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,14 +2786,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2784,7 +2802,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2801,14 +2819,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2817,14 +2835,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2834,14 +2852,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2850,14 +2868,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2867,14 +2885,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2883,14 +2901,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2900,11 +2918,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2916,14 +2934,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2933,14 +2951,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2966,11 +2984,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2989,7 +3007,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2999,11 +3017,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3015,14 +3033,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3032,14 +3050,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,14 +3066,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3065,11 +3083,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3081,14 +3099,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3098,14 +3116,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3114,14 +3132,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3131,14 +3149,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3147,7 +3165,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3164,14 +3182,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3197,14 +3215,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3213,14 +3231,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3230,11 +3248,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3246,14 +3264,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3279,31 +3297,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3312,14 +3330,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3329,11 +3347,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3352,7 +3370,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3362,11 +3380,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3378,14 +3396,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3395,14 +3413,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3418,7 +3436,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3428,14 +3446,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3444,14 +3462,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3461,14 +3479,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3477,14 +3495,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3494,49 +3512,148 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>205</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>41</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>13</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
         <v>206</v>
       </c>
-      <c t="s" r="Q74" s="12">
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>208</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>34</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>13</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>209</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3579.23</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>207</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>208</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>209</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>211</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>212</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>13</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>192</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3768.23</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>213</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>214</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>215</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3885,10 +4002,25 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -650,7 +650,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 6:23 PM</t>
+    <t>Saturday, 24 May, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>185.75</t>
+  </si>
+  <si>
+    <t>185.7500</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -248,13 +257,16 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:3</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>23.7600</t>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
@@ -344,9 +356,15 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>26.00</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -362,9 +380,6 @@
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -602,21 +617,24 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>15.0000</t>
   </si>
   <si>
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>شامبو جونسون وسط</t>
   </si>
   <si>
@@ -650,7 +668,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 6:35 PM</t>
+    <t>Saturday, 24 May, 2025 7:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1771,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1763,11 +1781,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1779,14 +1797,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1800,10 +1818,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1812,14 +1830,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1829,11 +1847,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1852,7 +1870,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1862,11 +1880,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1878,14 +1896,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1895,14 +1913,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1911,14 +1929,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1935,7 +1953,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1944,14 +1962,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1961,11 +1979,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1977,14 +1995,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2017,7 +2035,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2027,14 +2045,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2043,14 +2061,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2060,11 +2078,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2083,7 +2101,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2126,14 +2144,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2159,11 +2177,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2175,7 +2193,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2192,11 +2210,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2208,31 +2226,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2241,28 +2259,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2291,14 +2309,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2307,14 +2325,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2324,11 +2342,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2340,14 +2358,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2357,11 +2375,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2373,28 +2391,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2406,7 +2424,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2419,15 +2437,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2439,14 +2457,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2456,11 +2474,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2489,11 +2507,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2505,14 +2523,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2522,14 +2540,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2538,31 +2556,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2571,28 +2589,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2604,14 +2622,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2621,14 +2639,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2654,14 +2672,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2687,11 +2705,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,11 +2738,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2736,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2753,11 +2771,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,11 +2804,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2802,14 +2820,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2835,7 +2853,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2852,14 +2870,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,14 +2936,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,7 +2969,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3000,14 +3018,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3017,11 +3035,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3033,14 +3051,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3050,11 +3068,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3066,14 +3084,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3083,14 +3101,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3099,14 +3117,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3116,11 +3134,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3149,14 +3167,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3165,14 +3183,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3182,14 +3200,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3198,7 +3216,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3215,14 +3233,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,14 +3249,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3248,14 +3266,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3264,14 +3282,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3281,14 +3299,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3297,14 +3315,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3314,14 +3332,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3330,31 +3348,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3363,14 +3381,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3380,11 +3398,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3396,14 +3414,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3413,14 +3431,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3429,14 +3447,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3446,14 +3464,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3462,14 +3480,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3479,14 +3497,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3495,14 +3513,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3512,11 +3530,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3528,14 +3546,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3545,14 +3563,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3568,7 +3586,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3585,7 +3603,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3601,7 +3619,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3611,49 +3629,115 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>214</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>34</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>13</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>215</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3768.23</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>213</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>214</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>215</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>217</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>218</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>13</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>197</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4016.8600000000001</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>219</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>220</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>221</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4017,10 +4101,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -668,7 +668,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 7:04 PM</t>
+    <t>Saturday, 24 May, 2025 7:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -116,12 +116,21 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>BEPRA 20MG 14 F.C. TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>154.50</t>
   </si>
   <si>
@@ -188,6 +197,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>CONCOR 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
@@ -218,13 +236,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
@@ -260,9 +278,6 @@
     <t>6:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>35.6400</t>
   </si>
   <si>
@@ -380,9 +395,6 @@
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
   </si>
   <si>
@@ -398,9 +410,6 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>HERO BABY DIGEST MILK 400 GM</t>
   </si>
   <si>
@@ -434,9 +443,6 @@
     <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
     <t>99.0000</t>
   </si>
   <si>
@@ -668,7 +674,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 7:08 PM</t>
+    <t>Saturday, 24 May, 2025 7:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1491,7 +1497,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1500,14 +1506,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1517,14 +1523,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1533,14 +1539,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1550,11 +1556,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1566,14 +1572,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1583,14 +1589,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1599,14 +1605,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1623,7 +1629,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1639,7 +1645,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1656,7 +1662,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1672,7 +1678,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1689,7 +1695,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1705,7 +1711,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1722,7 +1728,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1738,7 +1744,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1755,7 +1761,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1771,7 +1777,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1788,7 +1794,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1804,7 +1810,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1814,11 +1820,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1830,14 +1836,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,14 +1853,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1870,7 +1876,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1880,14 +1886,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1896,14 +1902,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1917,7 +1923,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1929,14 +1935,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1946,14 +1952,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1962,14 +1968,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1979,14 +1985,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1995,14 +2001,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2012,14 +2018,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2028,14 +2034,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2045,11 +2051,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2061,14 +2067,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2078,14 +2084,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2118,7 +2124,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2134,7 +2140,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2144,14 +2150,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2167,7 +2173,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2177,11 +2183,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2193,7 +2199,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2210,14 +2216,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2226,14 +2232,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2243,11 +2249,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2259,31 +2265,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2292,14 +2298,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2309,14 +2315,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2325,28 +2331,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2358,14 +2364,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,14 +2381,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2391,14 +2397,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2431,21 +2437,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2457,14 +2463,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2474,11 +2480,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2490,28 +2496,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2523,14 +2529,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2540,11 +2546,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2556,14 +2562,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,14 +2579,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2589,28 +2595,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2622,14 +2628,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2639,14 +2645,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2655,31 +2661,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,14 +2694,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2709,7 +2715,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2721,14 +2727,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2738,14 +2744,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2761,7 +2767,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,11 +2777,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2787,7 +2793,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2804,11 +2810,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2820,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,11 +2843,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2853,14 +2859,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2876,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,11 +2909,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2919,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2936,11 +2942,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2952,14 +2958,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,11 +2975,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2985,7 +2991,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3002,14 +3008,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3018,14 +3024,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,14 +3041,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3051,14 +3057,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,14 +3074,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3084,14 +3090,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,11 +3107,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3117,14 +3123,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,14 +3140,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,14 +3156,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3171,10 +3177,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,14 +3189,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3200,14 +3206,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3216,14 +3222,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3233,14 +3239,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,14 +3255,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3266,14 +3272,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3282,14 +3288,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3299,14 +3305,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,14 +3321,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3332,14 +3338,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3348,14 +3354,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3365,14 +3371,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,31 +3387,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3414,31 +3420,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,14 +3453,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3464,14 +3470,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,14 +3486,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3497,11 +3503,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3513,14 +3519,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3530,14 +3536,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,14 +3552,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3563,14 +3569,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3579,14 +3585,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3596,11 +3602,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3612,14 +3618,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3629,14 +3635,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3645,14 +3651,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3662,14 +3668,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3678,14 +3684,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3695,49 +3701,115 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>216</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>34</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>13</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>217</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4016.8600000000001</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>219</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
         <v>220</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>13</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>199</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4118.5299999999997</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
         <v>221</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>222</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>223</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4111,10 +4183,20 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>DICYNONE 250MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -437,6 +446,9 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>MALCON MASSAGE CREAM</t>
   </si>
   <si>
@@ -482,6 +494,15 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OLAPEX 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -608,12 +629,6 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">بخاخ ريد الكبير </t>
   </si>
   <si>
@@ -674,7 +689,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 7:33 PM</t>
+    <t>Saturday, 24 May, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2173,7 +2188,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2183,11 +2198,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2216,14 +2231,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2249,14 +2264,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2272,7 +2287,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2338,13 +2353,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2355,7 +2370,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2371,24 +2386,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,14 +2429,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,11 +2462,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2480,11 +2495,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2503,13 +2518,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2517,7 +2532,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2529,7 +2544,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2542,15 +2557,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2569,7 +2584,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,11 +2594,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,7 +2627,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2635,7 +2650,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,31 +2676,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2694,28 +2709,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,11 +2858,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,11 +2891,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,11 +2924,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,11 +2990,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,11 +3023,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,11 +3056,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3057,7 +3072,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3173,11 +3188,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,14 +3254,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3255,14 +3270,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,14 +3320,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,14 +3336,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,14 +3353,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3371,14 +3386,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3404,14 +3419,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,31 +3468,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3493,24 +3508,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3536,14 +3551,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3569,11 +3584,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3585,14 +3600,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3635,14 +3650,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3668,11 +3683,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3691,7 +3706,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3705,10 +3720,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3767,49 +3782,115 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>221</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>34</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>13</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>222</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4118.5299999999997</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>221</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>222</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>223</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>224</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>225</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>13</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>162</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4175.1599999999999</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>226</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>227</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>228</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4193,10 +4274,20 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
@@ -689,7 +698,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 7:38 PM</t>
+    <t>Saturday, 24 May, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1396,7 +1405,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1406,14 +1415,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1422,14 +1431,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1439,11 +1448,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1455,14 +1464,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1472,14 +1481,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1488,14 +1497,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1505,14 +1514,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1521,14 +1530,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1545,7 +1554,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1554,14 +1563,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1571,14 +1580,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1587,14 +1596,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1604,11 +1613,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1620,14 +1629,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1637,14 +1646,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1677,7 +1686,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1693,7 +1702,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1710,7 +1719,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1726,7 +1735,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1743,7 +1752,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1759,7 +1768,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1776,7 +1785,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1792,7 +1801,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1825,7 +1834,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1842,7 +1851,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1858,7 +1867,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1891,7 +1900,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1938,10 +1947,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1967,11 +1976,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1990,7 +1999,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2000,11 +2009,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2089,7 +2098,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2122,7 +2131,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2132,11 +2141,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2198,11 +2207,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2221,7 +2230,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2231,11 +2240,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2297,14 +2306,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2320,7 +2329,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2386,13 +2395,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2403,7 +2412,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2419,24 +2428,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,11 +2504,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2528,11 +2537,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2551,13 +2560,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2565,7 +2574,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2577,28 +2586,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2617,7 +2626,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2627,11 +2636,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2660,7 +2669,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2683,7 +2692,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2709,7 +2718,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2722,18 +2731,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2742,28 +2751,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2815,7 +2824,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2858,11 +2867,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2874,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,11 +2900,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2907,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,7 +2933,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2947,7 +2956,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2957,11 +2966,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,11 +2999,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3013,7 +3022,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3030,7 +3039,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3063,7 +3072,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3079,7 +3088,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3096,7 +3105,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3112,7 +3121,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3126,10 +3135,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3155,11 +3164,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3178,7 +3187,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3221,11 +3230,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3254,11 +3263,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3310,7 +3319,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3320,11 +3329,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3376,7 +3385,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3426,7 +3435,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3442,7 +3451,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3456,10 +3465,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,14 +3477,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3485,14 +3494,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3518,14 +3527,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3534,31 +3543,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3567,14 +3576,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3584,11 +3593,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3640,7 +3649,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3683,11 +3692,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3699,14 +3708,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3732,14 +3741,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3772,7 +3781,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3805,7 +3814,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3822,7 +3831,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3838,7 +3847,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3848,49 +3857,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4175.1599999999999</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>226</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>227</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
         <v>228</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>13</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>165</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4283.1599999999999</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>229</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>230</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>231</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4284,10 +4326,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -260,6 +260,18 @@
     <t>100.00</t>
   </si>
   <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>DAFLON 500MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -305,12 +317,6 @@
     <t>DEXATROL EYE/EAR DROPS 5 ML</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -401,9 +407,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -569,6 +572,24 @@
     <t>240.00</t>
   </si>
   <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>59.5200</t>
+  </si>
+  <si>
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
   </si>
   <si>
@@ -665,6 +686,12 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>شامبو جونسون وسط</t>
   </si>
   <si>
@@ -698,7 +725,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 7:43 PM</t>
+    <t>Saturday, 24 May, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1999,7 +2026,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2009,14 +2036,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2025,14 +2052,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2075,14 +2102,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2098,7 +2125,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2108,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2124,14 +2151,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,11 +2168,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2157,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2174,11 +2201,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2207,14 +2234,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2223,14 +2250,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,11 +2267,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2273,11 +2300,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2306,14 +2333,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2322,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2339,14 +2366,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2355,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,11 +2399,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2388,7 +2415,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2405,11 +2432,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2421,31 +2448,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2454,31 +2481,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,14 +2531,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,11 +2564,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2560,7 +2587,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2570,11 +2597,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2586,28 +2613,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2619,7 +2646,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2632,15 +2659,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,11 +2696,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,11 +2729,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2751,31 +2778,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2791,21 +2818,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2817,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2850,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2890,7 +2917,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,11 +2927,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2923,7 +2950,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2933,11 +2960,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2949,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,11 +2993,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2982,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,11 +3026,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3015,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,11 +3059,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3048,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3081,7 +3108,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3098,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3147,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,11 +3224,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3246,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3263,11 +3290,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3286,7 +3313,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3296,11 +3323,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3312,14 +3339,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3329,14 +3356,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>188</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3362,14 +3389,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3395,14 +3422,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,14 +3438,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3428,14 +3455,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,14 +3471,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3461,14 +3488,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3477,14 +3504,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3494,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,14 +3537,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3527,14 +3554,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3543,14 +3570,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3560,14 +3587,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,31 +3603,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,31 +3636,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3642,14 +3669,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3659,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3675,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3692,11 +3719,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3708,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3725,14 +3752,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3741,14 +3768,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3758,14 +3785,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3774,14 +3801,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3791,11 +3818,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3807,14 +3834,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3824,14 +3851,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3840,14 +3867,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3857,14 +3884,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3873,14 +3900,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3890,49 +3917,115 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>233</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>37</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>13</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>234</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4283.1599999999999</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>229</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>230</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>231</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>236</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>237</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>13</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>166</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4447.6800000000003</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>238</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>239</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>240</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4331,10 +4424,20 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -662,6 +662,15 @@
     <t xml:space="preserve">بخاخ ريد الكبير </t>
   </si>
   <si>
+    <t>بيبرونه ALGO كبيره</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -692,6 +701,9 @@
     <t>16:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>شامبو جونسون وسط</t>
   </si>
   <si>
@@ -701,6 +713,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -725,7 +746,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 7:56 PM</t>
+    <t>Saturday, 24 May, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3742,7 +3763,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3759,7 +3780,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3775,7 +3796,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,14 +3806,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3801,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,11 +3839,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3834,14 +3855,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,14 +3872,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3867,14 +3888,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3884,14 +3905,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>229</v>
-      </c>
-      <c t="s" r="Q83" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3907,7 +3928,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3917,14 +3938,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3933,14 +3954,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3950,14 +3971,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3966,14 +3987,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3983,49 +4004,148 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>237</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>47</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>13</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>238</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>240</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>37</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>13</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>241</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>243</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>244</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>13</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>166</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
         <v>144</v>
       </c>
-      <c t="s" r="Q86" s="12">
+      <c t="s" r="Q89" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4447.6800000000003</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>238</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>239</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>240</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4547.6800000000003</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>245</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>246</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>247</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4434,10 +4554,25 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -194,378 +194,381 @@
     <t>69.00</t>
   </si>
   <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>CONA-ADIONE 10MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>CONCOR 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>185.75</t>
+  </si>
+  <si>
+    <t>185.7500</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>FEDESAFOROL DROP</t>
+  </si>
+  <si>
+    <t>44.90</t>
+  </si>
+  <si>
+    <t>44.9000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>349.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>157.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OLAPEX 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>52.8000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>411.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>OPTEST 0.05% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
     <t>22.7700</t>
   </si>
   <si>
-    <t>CONA-ADIONE 10MG 30 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>CONCOR 10MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>185.75</t>
-  </si>
-  <si>
-    <t>185.7500</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>FEDESAFOROL DROP</t>
-  </si>
-  <si>
-    <t>44.90</t>
-  </si>
-  <si>
-    <t>44.9000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>FUSI-ZON CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYPSUM  SYRUP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>349.00</t>
-  </si>
-  <si>
-    <t>349.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>MALCON MASSAGE CREAM</t>
-  </si>
-  <si>
-    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>193.50</t>
-  </si>
-  <si>
-    <t>63.8550</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>157.00</t>
-  </si>
-  <si>
-    <t>157.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OLAPEX 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>52.8000</t>
-  </si>
-  <si>
-    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>411.00</t>
-  </si>
-  <si>
-    <t>411.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>OPTEST 0.05% EYE DPS. 5 ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -713,6 +716,12 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -746,7 +755,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 8:13 PM</t>
+    <t>Saturday, 24 May, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1783,7 +1792,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1800,7 +1809,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -3348,7 +3357,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3360,7 +3369,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3426,7 +3435,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,11 +3485,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,7 +3518,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3525,7 +3534,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>34</v>
@@ -3558,7 +3567,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3575,11 +3584,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3591,7 +3600,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3608,7 +3617,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3624,7 +3633,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3645,7 +3654,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>39</v>
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3690,7 +3699,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3723,7 +3732,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3756,7 +3765,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3773,11 +3782,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3789,7 +3798,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3806,11 +3815,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>47</v>
@@ -3822,7 +3831,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3888,7 +3897,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3921,7 +3930,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3938,11 +3947,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>47</v>
@@ -3954,7 +3963,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3971,11 +3980,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4004,11 +4013,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4027,7 +4036,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4060,7 +4069,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4077,7 +4086,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4093,7 +4102,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4103,49 +4112,82 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>39</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4547.6800000000003</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>245</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>246</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
         <v>247</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>13</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>166</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4600.4499999999998</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>248</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>249</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>250</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4569,10 +4611,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -161,12 +161,33 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CALCIMATE 500 MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
   </si>
   <si>
     <t>0:-4</t>
   </si>
   <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
@@ -284,9 +305,6 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>82.50</t>
   </si>
   <si>
@@ -509,12 +527,6 @@
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>OLAPEX 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -602,6 +614,12 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -734,9 +752,6 @@
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>45.0000</t>
   </si>
   <si>
@@ -755,7 +770,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 8:15 PM</t>
+    <t>Saturday, 24 May, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1693,7 +1708,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1703,11 +1718,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1719,14 +1734,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1736,14 +1751,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1752,20 +1767,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1776,7 +1791,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1792,7 +1807,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1802,14 +1817,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1818,7 +1833,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1835,11 +1850,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1851,7 +1866,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1868,14 +1883,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1884,14 +1899,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1901,14 +1916,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1917,14 +1932,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1934,14 +1949,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1950,14 +1965,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1967,14 +1982,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1983,14 +1998,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2007,7 +2022,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2023,7 +2038,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2037,10 +2052,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2049,14 +2064,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2066,14 +2081,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2082,14 +2097,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2099,11 +2114,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2139,7 +2154,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2155,7 +2170,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2165,14 +2180,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2181,14 +2196,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2198,14 +2213,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2214,14 +2229,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2231,14 +2246,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2247,14 +2262,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2264,11 +2279,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2280,14 +2295,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2297,14 +2312,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2313,14 +2328,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2330,14 +2345,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2346,14 +2361,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2363,11 +2378,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2379,7 +2394,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2396,14 +2411,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2412,14 +2427,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2429,11 +2444,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2445,7 +2460,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2462,14 +2477,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2485,7 +2500,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2518,13 +2533,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2535,7 +2550,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2551,7 +2566,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2561,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2577,28 +2592,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2610,14 +2625,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2627,14 +2642,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2643,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2660,11 +2675,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2676,28 +2691,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2709,14 +2724,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2726,11 +2741,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2742,28 +2757,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2775,14 +2790,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,11 +2807,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2808,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2825,14 +2840,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2841,28 +2856,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2874,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2891,14 +2906,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2907,31 +2922,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2940,14 +2955,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2957,11 +2972,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2973,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2990,14 +3005,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3006,14 +3021,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3023,11 +3038,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3039,7 +3054,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3056,11 +3071,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3072,14 +3087,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,11 +3104,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3105,14 +3120,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,11 +3137,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3138,14 +3153,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,14 +3170,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3178,7 +3193,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,11 +3203,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3204,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3221,11 +3236,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3237,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,11 +3269,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3270,7 +3285,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3287,14 +3302,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3303,14 +3318,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,14 +3335,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3336,14 +3351,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3353,14 +3368,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3376,7 +3391,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,14 +3401,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3402,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3419,11 +3434,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,14 +3467,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,14 +3500,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3534,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,14 +3566,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,14 +3665,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3666,14 +3681,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3683,11 +3698,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3699,28 +3714,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3732,31 +3747,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3772,24 +3787,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3815,14 +3830,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,14 +3846,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3848,11 +3863,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3864,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3881,11 +3896,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3921,7 +3936,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>230</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3930,14 +3945,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3947,14 +3962,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3963,14 +3978,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3980,11 +3995,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3996,14 +4011,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>236</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4013,14 +4028,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4036,7 +4051,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4046,14 +4061,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4079,11 +4094,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4095,14 +4110,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4112,14 +4127,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4128,14 +4143,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4145,49 +4160,148 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>246</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>47</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>13</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>57</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>248</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>37</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>13</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>249</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4600.4499999999998</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>248</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>249</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>250</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>251</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>252</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>13</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>51</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4675.8900000000003</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>253</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>254</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>255</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4616,10 +4730,25 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -521,7 +521,7 @@
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>76.5600</t>
   </si>
   <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
@@ -569,6 +569,12 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>ORCHINOHIST 0.25% EYE DPS. 3 ML</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -653,6 +659,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
   </si>
   <si>
@@ -686,12 +701,6 @@
     <t>بيبرونه ALGO كبيره</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -716,10 +725,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>34.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -752,9 +758,6 @@
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -770,7 +773,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 8:30 PM</t>
+    <t>Saturday, 24 May, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3160,7 +3163,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3174,10 +3177,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3391,7 +3394,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,14 +3404,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3424,7 +3427,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,7 +3437,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3457,7 +3460,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3467,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>193</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3516,14 +3519,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3533,14 +3536,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3549,7 +3552,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3566,14 +3569,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3589,7 +3592,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,14 +3602,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3632,14 +3635,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3648,14 +3651,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3669,10 +3672,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3681,7 +3684,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3698,14 +3701,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3754,7 +3757,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3764,14 +3767,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3780,14 +3783,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3801,10 +3804,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3813,31 +3816,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3853,24 +3856,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3896,11 +3899,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3929,14 +3932,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3945,14 +3948,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3962,11 +3965,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3995,14 +3998,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>51</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4018,7 +4021,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4028,14 +4031,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>138</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4044,14 +4047,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4061,14 +4064,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4077,14 +4080,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4094,14 +4097,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4127,14 +4130,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4160,11 +4163,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4193,11 +4196,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4226,14 +4229,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>252</v>
+        <v>47</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4259,49 +4262,115 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>249</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>37</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>13</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>250</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>252</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>253</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>13</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>51</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>150</v>
       </c>
-      <c t="s" r="Q93" s="12">
+      <c t="s" r="Q95" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4675.8900000000003</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>253</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4763.4499999999998</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
         <v>254</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
         <v>255</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>256</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4745,10 +4814,20 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -218,6 +218,18 @@
     <t>45.5400</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONA-ADIONE 10MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
@@ -434,6 +446,15 @@
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
   </si>
   <si>
@@ -458,6 +479,15 @@
     <t>349.0000</t>
   </si>
   <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -548,9 +578,6 @@
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>28.0000</t>
   </si>
   <si>
@@ -656,7 +683,7 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>62.0000</t>
+    <t>124.0000</t>
   </si>
   <si>
     <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
@@ -671,9 +698,6 @@
     <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
   </si>
   <si>
-    <t>84.00</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -773,7 +797,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 8:41 PM</t>
+    <t>Saturday, 24 May, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1909,7 +1933,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1919,14 +1943,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1935,14 +1959,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1952,14 +1976,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1968,14 +1992,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1985,11 +2009,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2001,14 +2025,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2018,14 +2042,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2034,14 +2058,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2051,11 +2075,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2067,14 +2091,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2091,7 +2115,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2107,7 +2131,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2117,14 +2141,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2133,14 +2157,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2150,14 +2174,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2173,7 +2197,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2183,14 +2207,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2199,14 +2223,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2216,11 +2240,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2232,14 +2256,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2249,14 +2273,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2272,7 +2296,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2282,14 +2306,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2298,14 +2322,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2315,11 +2339,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2331,14 +2355,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2348,11 +2372,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2371,7 +2395,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2381,14 +2405,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2414,11 +2438,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2430,14 +2454,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2470,7 +2494,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2480,14 +2504,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2496,14 +2520,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2513,14 +2537,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2529,14 +2553,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2546,11 +2570,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2562,7 +2586,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2579,11 +2603,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2595,31 +2619,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2628,20 +2652,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2652,7 +2676,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2668,7 +2692,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2678,14 +2702,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2694,14 +2718,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2711,11 +2735,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2727,14 +2751,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2744,11 +2768,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2760,31 +2784,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2793,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,11 +2834,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2826,28 +2850,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2859,14 +2883,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2876,11 +2900,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2892,14 +2916,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2925,28 +2949,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2958,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,11 +2999,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2991,7 +3015,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3008,14 +3032,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,28 +3048,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3057,7 +3081,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3074,11 +3098,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3090,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3123,14 +3147,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,11 +3164,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3156,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3173,14 +3197,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3189,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,11 +3230,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3222,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,14 +3263,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3255,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,14 +3296,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3288,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,14 +3329,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3321,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3362,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3354,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3428,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,14 +3444,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3461,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,14 +3510,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,14 +3527,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3519,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,11 +3560,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3552,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,14 +3609,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3626,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3635,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3651,14 +3675,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,14 +3692,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,14 +3708,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,14 +3725,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3758,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3757,7 +3781,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,14 +3791,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3790,7 +3814,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3804,10 +3828,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,14 +3857,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3849,14 +3873,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3866,14 +3890,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,28 +3906,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3915,31 +3939,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3948,31 +3972,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3998,14 +4022,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4014,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,11 +4055,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4047,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4064,11 +4088,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4080,7 +4104,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4097,14 +4121,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>235</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4113,14 +4137,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4130,14 +4154,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4146,14 +4170,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4163,11 +4187,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4179,14 +4203,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4196,14 +4220,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4212,14 +4236,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4229,14 +4253,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4252,7 +4276,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4262,11 +4286,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4278,14 +4302,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4295,14 +4319,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4311,14 +4335,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4328,49 +4352,148 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>256</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>47</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>13</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>57</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>257</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>37</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>13</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>258</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4763.4499999999998</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>254</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>255</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>256</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>260</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>261</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>13</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>51</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4943.8199999999997</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>262</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>263</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>264</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4824,10 +4947,25 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -362,6 +362,15 @@
     <t>DICYNONE 250MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -503,6 +512,12 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -707,13 +722,10 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>2:3</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
-    <t>16.3200</t>
+    <t>32.6400</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -749,7 +761,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>34.0000</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -797,7 +809,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 8:44 PM</t>
+    <t>Saturday, 24 May, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2461,7 +2473,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2478,7 +2490,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2494,7 +2506,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2504,11 +2516,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2593,7 +2605,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2659,13 +2671,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2676,7 +2688,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2692,24 +2704,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2718,14 +2730,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2742,7 +2754,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2758,7 +2770,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2768,11 +2780,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2824,7 +2836,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2841,7 +2853,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2857,13 +2869,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2871,7 +2883,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2883,7 +2895,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2896,15 +2908,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2923,7 +2935,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2956,7 +2968,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2966,11 +2978,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2982,14 +2994,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,7 +3011,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3022,7 +3034,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3032,14 +3044,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3048,20 +3060,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3069,10 +3081,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,14 +3110,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3114,31 +3126,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3154,7 +3166,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,11 +3176,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,11 +3242,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3246,7 +3258,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3263,11 +3275,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3286,7 +3298,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3319,7 +3331,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3329,11 +3341,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3362,14 +3374,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3378,14 +3390,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,11 +3407,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3411,14 +3423,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,7 +3440,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3451,7 +3463,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3465,7 +3477,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3477,7 +3489,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3494,14 +3506,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3527,11 +3539,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3550,7 +3562,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3576,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,14 +3605,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3609,14 +3621,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3638,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>204</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,11 +3671,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3675,14 +3687,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,14 +3704,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,14 +3737,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3748,7 +3760,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,11 +3770,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3774,14 +3786,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3795,10 +3807,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3814,7 +3826,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,14 +3836,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3840,14 +3852,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3861,10 +3873,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,14 +3885,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,14 +3902,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3906,14 +3918,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,11 +3935,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3939,14 +3951,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,14 +3968,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3972,14 +3984,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,14 +4001,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,31 +4017,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4045,24 +4057,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,11 +4100,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4104,14 +4116,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,14 +4133,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>93</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4144,7 +4156,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,11 +4166,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4177,7 +4189,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,14 +4199,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4203,14 +4215,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,14 +4232,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>243</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4236,14 +4248,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4253,14 +4265,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4276,7 +4288,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4290,10 +4302,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>250</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4309,7 +4321,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4319,14 +4331,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4335,14 +4347,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4352,11 +4364,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>47</v>
+        <v>256</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4385,11 +4397,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4408,7 +4420,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4425,7 +4437,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4441,7 +4453,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>261</v>
+        <v>47</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4451,49 +4463,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>261</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>37</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>13</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>262</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4943.8199999999997</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>262</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>263</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>264</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>265</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>13</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>51</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5046.1400000000003</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>266</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>267</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>268</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4962,10 +5040,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -473,12 +473,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
     <t>HERO BABY DIGEST MILK 400 GM</t>
   </si>
   <si>
@@ -527,6 +530,15 @@
     <t>MALCON MASSAGE CREAM</t>
   </si>
   <si>
+    <t>MAVILOR 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
   </si>
   <si>
@@ -662,6 +674,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
     <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -809,7 +830,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 8:53 PM</t>
+    <t>Saturday, 24 May, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2902,13 +2923,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2941,15 +2962,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2961,14 +2982,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2978,11 +2999,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2994,14 +3015,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3011,11 +3032,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3027,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3044,11 +3065,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3060,14 +3081,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3077,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3093,14 +3114,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3110,14 +3131,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3126,31 +3147,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3166,21 +3187,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3192,14 +3213,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3209,14 +3230,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3225,14 +3246,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,11 +3263,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3265,7 +3286,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3275,14 +3296,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3291,14 +3312,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3308,11 +3329,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3324,7 +3345,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3341,11 +3362,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3357,14 +3378,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3374,14 +3395,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3390,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3407,11 +3428,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3423,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3440,14 +3461,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3463,7 +3484,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3473,11 +3494,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3489,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3506,11 +3527,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3522,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3539,11 +3560,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3572,14 +3593,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3588,7 +3609,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3605,11 +3626,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3621,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3638,14 +3659,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3661,7 +3682,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3671,14 +3692,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3694,7 +3715,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3704,14 +3725,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>209</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3720,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3737,11 +3758,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>67</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3753,14 +3774,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3770,14 +3791,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3786,14 +3807,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3803,14 +3824,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3819,14 +3840,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3836,11 +3857,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3869,14 +3890,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3892,7 +3913,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3906,10 +3927,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3918,14 +3939,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3935,11 +3956,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3951,14 +3972,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3968,14 +3989,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,14 +4005,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4001,14 +4022,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4024,7 +4045,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4034,14 +4055,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4050,14 +4071,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4067,14 +4088,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4083,28 +4104,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4116,31 +4137,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4149,31 +4170,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4182,14 +4203,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4199,14 +4220,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4215,14 +4236,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4232,11 +4253,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4248,14 +4269,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4265,11 +4286,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>51</v>
+        <v>238</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4281,7 +4302,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4298,14 +4319,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>250</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4314,14 +4335,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4331,14 +4352,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4347,14 +4368,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4364,11 +4385,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4387,7 +4408,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4397,14 +4418,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4413,14 +4434,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4430,14 +4451,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4446,14 +4467,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4463,11 +4484,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4479,14 +4500,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4496,14 +4517,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4519,7 +4540,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4529,49 +4550,148 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>51</v>
+        <v>265</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>267</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>47</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>13</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>57</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>268</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>37</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>13</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>269</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q102" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5046.1400000000003</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>266</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>267</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>268</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>271</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>272</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>13</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>51</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5277.8599999999997</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>273</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>274</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>275</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5050,10 +5170,25 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -395,6 +395,12 @@
     <t>EFEMYO OPHTH. SUSP. 10 ML</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -440,9 +446,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -629,6 +632,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -749,6 +761,15 @@
     <t>32.6400</t>
   </si>
   <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -830,7 +851,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 8:55 PM</t>
+    <t>Saturday, 24 May, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2626,7 +2647,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2636,14 +2657,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2652,14 +2673,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2669,11 +2690,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2685,7 +2706,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2702,11 +2723,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2718,31 +2739,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2751,31 +2772,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2784,14 +2805,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2801,14 +2822,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2834,11 +2855,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2857,7 +2878,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2867,14 +2888,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2900,14 +2921,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2933,11 +2954,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2949,24 +2970,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2995,15 +3016,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3015,14 +3036,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3032,11 +3053,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3065,11 +3086,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3081,14 +3102,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3098,11 +3119,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3114,14 +3135,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3131,14 +3152,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3147,14 +3168,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3164,14 +3185,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3180,31 +3201,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3220,21 +3241,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3246,14 +3267,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3263,11 +3284,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3279,14 +3300,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3296,14 +3317,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3312,14 +3333,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3329,14 +3350,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3352,7 +3373,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,11 +3383,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3385,7 +3406,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,11 +3416,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3411,14 +3432,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,11 +3449,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3444,14 +3465,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,14 +3482,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3477,14 +3498,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3494,14 +3515,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3517,7 +3538,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,14 +3548,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,7 +3564,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3560,14 +3581,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3576,14 +3597,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,14 +3614,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3609,14 +3630,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,14 +3647,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3642,14 +3663,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3659,11 +3680,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3675,14 +3696,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,11 +3713,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3708,14 +3729,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,14 +3746,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3741,14 +3762,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,14 +3779,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3781,7 +3802,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,14 +3812,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3807,14 +3828,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,11 +3845,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3840,14 +3861,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,14 +3878,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3873,14 +3894,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,11 +3911,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3906,7 +3927,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3923,14 +3944,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3939,14 +3960,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,14 +3977,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3979,7 +4000,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,14 +4010,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4005,14 +4026,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,14 +4043,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4038,14 +4059,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4055,14 +4076,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4071,14 +4092,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4088,14 +4109,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,14 +4125,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4121,11 +4142,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4144,7 +4165,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,14 +4175,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4170,14 +4191,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,14 +4208,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4203,31 +4224,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4243,24 +4264,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>93</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,28 +4290,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4302,14 +4323,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4319,14 +4340,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4335,14 +4356,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,11 +4373,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4368,14 +4389,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,11 +4406,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4401,7 +4422,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4418,14 +4439,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>257</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4434,14 +4455,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4451,14 +4472,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4467,14 +4488,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4484,11 +4505,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4507,7 +4528,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4517,14 +4538,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4533,14 +4554,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4550,14 +4571,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4566,14 +4587,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4583,11 +4604,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>57</v>
+        <v>267</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4599,14 +4620,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4616,14 +4637,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4639,7 +4660,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4649,49 +4670,148 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>274</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>47</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>13</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>57</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>275</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>37</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>13</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>276</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5277.8599999999997</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>273</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>274</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>275</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>278</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>279</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>13</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>51</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5495.8599999999997</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>280</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>281</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>282</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5185,10 +5305,25 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -44,67 +44,850 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t xml:space="preserve">IDOMALTOL  IRON30MG 56CAPS</t>
-  </si>
-  <si>
-    <t>-1:0</t>
+    <t>ALWAYS ماكس طويل</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>218.0000</t>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>OCEAN FLUID+SPRAY</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>220.0000</t>
-  </si>
-  <si>
-    <t>ORGASOL LIGHT CREAM</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISBRINA  CAPS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUICK NAIL  LOTION</t>
-  </si>
-  <si>
-    <t>-23:0</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>1955.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>Saturday, 24 May, 2025 9:00 PM</t>
+    <t>AMARYL 1MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>-50.9850</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CALCIMATE 500 MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:-4</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONA-ADIONE 10MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>CONCOR 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>185.75</t>
+  </si>
+  <si>
+    <t>185.7500</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>FEDESAFOROL DROP</t>
+  </si>
+  <si>
+    <t>44.90</t>
+  </si>
+  <si>
+    <t>44.9000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>349.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>MAVILOR 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>157.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>76.5600</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>OLAPEX 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>52.8000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>411.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>OPTEST 0.05% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>ORCHINOHIST 0.25% EYE DPS. 3 ML</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>59.5200</t>
+  </si>
+  <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>181.5450</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>48.9600</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخاخ ريد الكبير </t>
+  </si>
+  <si>
+    <t>بيبرونه ALGO كبيره</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>شامبو جونسون وسط</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>معجون حلاقه 55555</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -778,24 +1561,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -804,28 +1587,28 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -837,31 +1620,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -870,66 +1653,3333 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>18</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>39</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>18</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>39</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>18</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>43</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>47</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>18</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>48</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>39</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>18</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>51</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>54</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>18</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>14</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>56</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>57</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>60</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>18</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>61</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>63</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>37</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>18</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>64</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>26</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>18</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>67</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>70</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>18</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>71</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>37</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>18</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>26</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>18</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>21</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>18</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>80</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>39</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>18</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>83</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>85</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>37</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>18</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>86</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>89</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>18</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>90</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>39</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>18</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>93</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>37</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>18</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>95</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>97</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>98</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>18</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>99</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>101</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>26</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>18</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>102</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>104</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>18</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>105</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>56</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>18</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>108</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
         <v>29</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>110</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>111</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>18</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>40</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>2673</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>114</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>39</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>18</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>115</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
         <v>31</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>117</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>16</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>18</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>99</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
         <v>32</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>118</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>119</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>18</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>120</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
         <v>33</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>122</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>34</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>18</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>61</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>123</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>34</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>18</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>124</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>126</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>16</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>18</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>127</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>129</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>130</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>18</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>131</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>133</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>16</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>18</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>115</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>134</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>16</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>18</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>31</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>34</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>18</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>137</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>16</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>18</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>140</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>16</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>18</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>143</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>145</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>37</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>13</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>146</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>148</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>149</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>18</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>150</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>151</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>98</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>18</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>152</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>154</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>149</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>18</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>40</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>155</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>56</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>18</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>156</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>158</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>16</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>18</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>159</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>161</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>21</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>18</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>162</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>163</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>37</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>13</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>162</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>37</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>18</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>165</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>167</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>16</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>18</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>168</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>170</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>26</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>18</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>19</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>172</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>21</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>18</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>173</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>70</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>18</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>14</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>177</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>34</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>18</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>131</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>179</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>37</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>13</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>14</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>180</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>21</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>18</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>181</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>183</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>16</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>18</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>77</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>185</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>34</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>18</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>186</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>188</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>21</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>18</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>83</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>189</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>16</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>18</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>159</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>190</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>37</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>18</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>93</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>192</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>16</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>18</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>193</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>195</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>56</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>18</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>162</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>197</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>47</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>18</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>51</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>198</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>21</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>18</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>199</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>201</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>21</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>18</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>202</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>204</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>16</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>18</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>168</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>206</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>37</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>18</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>207</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>208</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>16</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>18</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>209</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>211</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>37</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>18</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>57</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>213</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>39</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>18</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>214</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>216</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>37</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>18</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>217</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>219</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>21</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>18</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>83</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>221</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>26</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>18</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>67</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>223</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>16</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>18</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>224</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>227</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>228</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>18</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>229</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>231</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>37</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>18</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>232</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>234</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>235</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>18</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>61</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>237</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>37</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>18</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>238</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>239</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>240</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>18</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>232</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>241</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>242</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>18</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>243</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>244</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>16</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>18</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>245</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>247</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>21</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>18</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>248</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>250</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>37</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>18</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>251</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>253</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>37</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>18</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>156</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>254</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>26</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>18</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>255</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>257</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>34</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>18</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>40</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>259</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>260</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>18</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>214</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>262</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>37</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>18</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>263</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>265</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>39</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>13</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>51</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>266</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>98</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>13</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>93</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>267</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>149</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>13</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>251</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>268</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>37</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>13</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>269</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>271</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>16</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>13</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>152</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>272</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>273</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>13</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>51</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>274</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>37</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>13</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>275</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>277</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>37</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>13</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>269</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>278</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>16</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>13</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>279</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>281</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>282</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>13</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>251</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>283</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>273</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>13</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>284</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>286</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>47</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>13</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>57</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>287</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>37</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>13</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>288</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>290</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>291</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>13</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>51</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5804.4300000000003</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>292</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>293</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>294</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -963,10 +5013,505 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -887,7 +887,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:05 PM</t>
+    <t>Saturday, 24 May, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -173,9 +173,6 @@
     <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:-4</t>
-  </si>
-  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -791,10 +788,7 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>48.9600</t>
+    <t>65.2800</t>
   </si>
   <si>
     <t>ZESTRIL 20MG 10 TAB</t>
@@ -839,7 +833,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -887,7 +884,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:07 PM</t>
+    <t>Saturday, 24 May, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1858,7 +1855,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1884,14 +1881,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1901,11 +1898,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1917,14 +1914,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1934,11 +1931,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1950,7 +1947,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1967,11 +1964,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1983,7 +1980,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2000,11 +1997,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -2016,14 +2013,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2033,11 +2030,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2049,7 +2046,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2066,11 +2063,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2082,7 +2079,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2099,11 +2096,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2115,7 +2112,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2132,11 +2129,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2148,7 +2145,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2165,11 +2162,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2181,7 +2178,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2198,11 +2195,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2214,14 +2211,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2231,11 +2228,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>39</v>
@@ -2247,7 +2244,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2264,11 +2261,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2280,7 +2277,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2297,11 +2294,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2313,14 +2310,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2330,11 +2327,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2346,7 +2343,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2363,11 +2360,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2379,7 +2376,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2396,11 +2393,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2412,14 +2409,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2429,11 +2426,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2445,14 +2442,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2466,10 +2463,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>113</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2478,7 +2475,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2495,11 +2492,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2511,7 +2508,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2528,11 +2525,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2544,14 +2541,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2561,11 +2558,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2577,7 +2574,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2594,11 +2591,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2610,7 +2607,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2627,11 +2624,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2643,7 +2640,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2660,11 +2657,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2676,14 +2673,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2693,11 +2690,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2709,7 +2706,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2726,11 +2723,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2742,7 +2739,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2763,7 +2760,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2775,7 +2772,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2792,11 +2789,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2808,7 +2805,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2825,11 +2822,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2841,7 +2838,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2858,11 +2855,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2874,7 +2871,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2891,11 +2888,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2907,14 +2904,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,11 +2921,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>39</v>
@@ -2940,14 +2937,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2957,11 +2954,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2973,14 +2970,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3006,14 +3003,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3023,11 +3020,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3039,7 +3036,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3056,11 +3053,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3072,7 +3069,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3089,11 +3086,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3105,7 +3102,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3122,11 +3119,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3138,7 +3135,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3155,11 +3152,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3171,7 +3168,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3188,11 +3185,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3204,7 +3201,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3225,7 +3222,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3237,7 +3234,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3254,11 +3251,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3270,14 +3267,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3291,7 +3288,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3303,7 +3300,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3320,11 +3317,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3336,7 +3333,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3369,7 +3366,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3386,11 +3383,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3402,7 +3399,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3419,11 +3416,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3435,7 +3432,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3452,11 +3449,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3468,7 +3465,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3485,11 +3482,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3501,7 +3498,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3518,11 +3515,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3534,7 +3531,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3551,11 +3548,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3567,7 +3564,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3584,11 +3581,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3600,14 +3597,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,11 +3614,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>34</v>
@@ -3633,7 +3630,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3666,7 +3663,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3683,11 +3680,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3699,7 +3696,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3716,11 +3713,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3732,7 +3729,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3749,11 +3746,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3765,7 +3762,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3782,11 +3779,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3798,7 +3795,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3815,11 +3812,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3831,7 +3828,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3848,11 +3845,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3864,7 +3861,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3881,11 +3878,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3897,7 +3894,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3914,11 +3911,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3930,7 +3927,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3947,11 +3944,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3963,7 +3960,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3980,11 +3977,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3996,7 +3993,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4013,14 +4010,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>225</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>226</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4026,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,11 +4043,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4062,7 +4059,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4079,11 +4076,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4095,14 +4092,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,11 +4109,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4128,7 +4125,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4145,11 +4142,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>26</v>
@@ -4161,14 +4158,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,11 +4175,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4194,14 +4191,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,7 +4208,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4227,7 +4224,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4244,11 +4241,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>34</v>
@@ -4260,7 +4257,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4277,11 +4274,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4293,7 +4290,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4310,11 +4307,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4326,7 +4323,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4343,11 +4340,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4359,7 +4356,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4376,11 +4373,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4392,7 +4389,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4413,7 +4410,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>39</v>
@@ -4425,14 +4422,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4442,14 +4439,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>113</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4458,7 +4455,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4475,11 +4472,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4491,7 +4488,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4524,14 +4521,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,11 +4538,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4557,14 +4554,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4574,11 +4571,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4590,7 +4587,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4607,11 +4604,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>47</v>
@@ -4623,7 +4620,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4640,11 +4637,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4656,14 +4653,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4689,7 +4686,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4706,14 +4703,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,7 +4719,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4739,11 +4736,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>47</v>
@@ -4755,7 +4752,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4772,11 +4769,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4788,14 +4785,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4805,11 +4802,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4821,14 +4818,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4838,11 +4835,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4854,7 +4851,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4871,11 +4868,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4887,7 +4884,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4904,11 +4901,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>39</v>
@@ -4920,14 +4917,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4941,7 +4938,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>39</v>
@@ -4949,13 +4946,13 @@
     </row>
     <row r="111" ht="25.5" customHeight="1">
       <c r="P111" s="13">
-        <v>5804.4300000000003</v>
+        <v>5822.75</v>
       </c>
       <c r="Q111" s="13"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
       <c t="s" r="A112" s="14">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -4963,13 +4960,13 @@
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
       <c t="s" r="G112" s="15">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
       <c r="J112" s="16"/>
       <c t="s" r="K112" s="17">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L112" s="17"/>
       <c r="M112" s="17"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CALCIMATE 500 MG 12 CAPS.</t>
   </si>
   <si>
@@ -359,6 +368,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DEXAGLOBE 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>DEXATROL EYE/EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -452,6 +470,15 @@
     <t>44.9000</t>
   </si>
   <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -461,6 +488,15 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -473,6 +509,9 @@
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -584,6 +623,12 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
@@ -761,12 +806,6 @@
     <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
   </si>
   <si>
@@ -782,9 +821,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -884,7 +920,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:15 PM</t>
+    <t>Saturday, 24 May, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1855,7 +1891,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1865,11 +1901,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1881,31 +1917,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1914,31 +1950,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1947,14 +1983,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1971,7 +2007,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1987,7 +2023,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2004,7 +2040,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2020,7 +2056,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2030,14 +2066,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2046,14 +2082,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2070,7 +2106,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2086,7 +2122,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2103,7 +2139,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2119,7 +2155,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2152,7 +2188,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2169,7 +2205,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2185,7 +2221,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2218,7 +2254,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2228,14 +2264,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2244,14 +2280,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2265,10 +2301,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2277,14 +2313,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2294,11 +2330,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2317,7 +2353,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2327,14 +2363,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2343,14 +2379,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2367,7 +2403,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2383,7 +2419,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2416,7 +2452,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2449,7 +2485,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2459,14 +2495,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2475,14 +2511,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2492,14 +2528,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>115</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2515,7 +2551,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2525,11 +2561,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2541,14 +2577,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2558,11 +2594,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2574,14 +2610,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2591,14 +2627,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2607,14 +2643,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2624,11 +2660,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2640,14 +2676,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2657,11 +2693,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2680,7 +2716,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2690,14 +2726,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2706,7 +2742,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2723,14 +2759,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2739,14 +2775,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2756,14 +2792,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2772,14 +2808,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2789,14 +2825,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2805,7 +2841,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2822,14 +2858,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2845,7 +2881,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2878,13 +2914,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2895,7 +2931,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2911,7 +2947,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2921,14 +2957,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2944,13 +2980,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2977,7 +3013,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2987,11 +3023,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3003,14 +3039,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3020,14 +3056,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3036,7 +3072,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3053,14 +3089,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3069,14 +3105,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3086,11 +3122,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3102,31 +3138,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3135,14 +3171,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3152,14 +3188,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3168,7 +3204,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3185,11 +3221,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3201,14 +3237,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3218,11 +3254,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3234,28 +3270,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3267,14 +3303,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3284,14 +3320,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3300,14 +3336,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3317,14 +3353,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3333,28 +3369,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3366,7 +3402,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3383,11 +3419,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3399,14 +3435,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3416,14 +3452,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3432,7 +3468,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3449,14 +3485,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3465,28 +3501,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3498,14 +3534,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3515,11 +3551,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3531,14 +3567,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3548,11 +3584,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3564,14 +3600,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3581,14 +3617,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3597,14 +3633,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3614,14 +3650,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3630,14 +3666,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3647,11 +3683,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3663,14 +3699,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3680,14 +3716,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3696,14 +3732,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3713,11 +3749,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3729,7 +3765,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3746,14 +3782,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3762,14 +3798,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3779,14 +3815,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3795,14 +3831,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3812,11 +3848,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3828,14 +3864,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3845,14 +3881,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3861,14 +3897,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3878,14 +3914,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3894,14 +3930,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3911,14 +3947,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3927,14 +3963,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3944,14 +3980,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3960,14 +3996,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3977,14 +4013,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3993,14 +4029,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4010,14 +4046,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4026,14 +4062,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4099,7 +4135,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4109,11 +4145,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4125,14 +4161,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4142,14 +4178,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4158,14 +4194,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4175,14 +4211,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4191,14 +4227,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4208,14 +4244,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4224,14 +4260,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4241,14 +4277,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4257,14 +4293,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4274,14 +4310,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>63</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4290,7 +4326,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4307,14 +4343,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4323,14 +4359,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4340,11 +4376,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4356,14 +4392,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4373,14 +4409,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4389,14 +4425,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4406,14 +4442,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4422,14 +4458,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4439,14 +4475,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4455,7 +4491,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4472,11 +4508,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>120</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4488,28 +4524,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4521,31 +4557,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4554,31 +4590,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4587,31 +4623,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>47</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4620,28 +4656,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4653,14 +4689,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4670,11 +4706,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4686,14 +4722,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4703,14 +4739,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>273</v>
+        <v>95</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4719,14 +4755,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4736,14 +4772,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4752,14 +4788,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4769,14 +4805,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4785,14 +4821,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4802,11 +4838,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4825,7 +4861,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4835,11 +4871,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>283</v>
+        <v>54</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4851,14 +4887,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4868,14 +4904,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4884,7 +4920,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4901,14 +4937,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4924,7 +4960,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4934,49 +4970,214 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>51</v>
+        <v>290</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>170</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>292</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>293</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>13</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>120</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>294</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>283</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>13</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>295</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>297</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>47</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>13</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>59</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>298</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>37</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>13</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>299</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q114" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5822.75</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>291</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>292</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>293</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>301</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>302</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>13</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>54</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6075.1899999999996</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>303</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>304</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>305</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5505,10 +5706,35 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -920,7 +920,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:19 PM</t>
+    <t>Saturday, 24 May, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -920,7 +920,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:20 PM</t>
+    <t>Saturday, 24 May, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -479,6 +479,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -692,6 +701,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -725,9 +743,6 @@
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -794,6 +809,12 @@
     <t>181.5450</t>
   </si>
   <si>
+    <t>SULPEPTA 25MGTAB</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -842,6 +863,9 @@
     <t xml:space="preserve">بخاخ ريد الكبير </t>
   </si>
   <si>
+    <t>200.0000</t>
+  </si>
+  <si>
     <t>بيبرونه ALGO كبيره</t>
   </si>
   <si>
@@ -918,6 +942,12 @@
   </si>
   <si>
     <t>10:0</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>Saturday, 24 May, 2025 9:30 PM</t>
@@ -3046,7 +3076,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3056,14 +3086,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3079,7 +3109,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3089,14 +3119,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3112,7 +3142,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3129,7 +3159,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3155,14 +3185,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3171,14 +3201,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3188,14 +3218,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3211,7 +3241,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3228,7 +3258,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3244,7 +3274,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3258,7 +3288,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3270,24 +3300,24 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3303,7 +3333,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3316,7 +3346,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3324,7 +3354,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3343,7 +3373,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3376,7 +3406,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3386,11 +3416,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3402,14 +3432,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3419,7 +3449,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3442,7 +3472,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3452,14 +3482,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3468,14 +3498,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,14 +3515,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3501,31 +3531,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3534,28 +3564,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3574,7 +3604,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,11 +3614,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3600,14 +3630,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3617,14 +3647,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3640,7 +3670,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3650,14 +3680,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3666,14 +3696,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3683,11 +3713,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3699,14 +3729,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3716,11 +3746,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3732,14 +3762,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3749,11 +3779,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3765,14 +3795,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,11 +3812,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3805,7 +3835,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,14 +3845,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3831,14 +3861,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3848,14 +3878,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3864,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3881,14 +3911,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3921,7 +3951,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3937,7 +3967,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3947,14 +3977,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3963,14 +3993,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3980,14 +4010,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3996,14 +4026,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,11 +4043,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4036,7 +4066,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,11 +4076,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4062,14 +4092,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4079,14 +4109,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4102,7 +4132,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4119,7 +4149,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4135,7 +4165,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4145,11 +4175,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4161,14 +4191,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4178,14 +4208,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4194,14 +4224,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,14 +4241,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>85</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>240</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4234,7 +4264,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,11 +4274,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4260,14 +4290,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,14 +4307,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4293,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,11 +4340,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4326,7 +4356,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4343,14 +4373,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4376,14 +4406,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4392,14 +4422,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4413,10 +4443,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4432,7 +4462,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,14 +4472,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4458,14 +4488,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4479,10 +4509,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4491,14 +4521,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4508,14 +4538,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4524,31 +4554,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4557,14 +4587,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4574,14 +4604,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4590,14 +4620,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4607,14 +4637,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4623,14 +4653,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4640,14 +4670,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4656,14 +4686,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4673,14 +4703,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4689,31 +4719,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4722,31 +4752,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>203</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4755,28 +4785,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4788,14 +4818,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4805,14 +4835,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>279</v>
+        <v>54</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4821,14 +4851,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4838,14 +4868,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>164</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4854,14 +4884,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4871,11 +4901,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4887,7 +4917,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4904,14 +4934,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>287</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4920,14 +4950,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4937,14 +4967,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>279</v>
+        <v>166</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4953,14 +4983,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4970,11 +5000,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4993,7 +5023,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5003,14 +5033,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>120</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>121</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5019,14 +5049,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5036,14 +5066,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5059,7 +5089,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5069,11 +5099,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>59</v>
+        <v>298</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>226</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5085,14 +5115,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5102,14 +5132,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>300</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5118,14 +5148,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5135,49 +5165,181 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>183</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>305</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>47</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>13</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>59</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>306</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>37</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>13</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>307</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q117" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6075.1899999999996</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>303</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>304</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>305</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>309</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>310</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>13</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>54</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>311</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>312</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>13</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>166</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6397.21</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>313</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>314</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>315</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5731,10 +5893,30 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -443,6 +443,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
@@ -539,12 +548,33 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:22</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
     <t>66.00</t>
   </si>
   <si>
+    <t>GLUCOVANCE 1000/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
@@ -818,9 +848,6 @@
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
-    <t>124.00</t>
-  </si>
-  <si>
     <t>124.0000</t>
   </si>
   <si>
@@ -950,7 +977,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:30 PM</t>
+    <t>Saturday, 24 May, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2944,7 +2971,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2961,7 +2988,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3010,13 +3037,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3027,7 +3054,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3043,13 +3070,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3076,7 +3103,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3093,7 +3120,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3109,7 +3136,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3119,14 +3146,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3142,7 +3169,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3152,14 +3179,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3175,7 +3202,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3192,7 +3219,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3218,14 +3245,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3234,14 +3261,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3251,14 +3278,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3274,7 +3301,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3291,7 +3318,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3307,7 +3334,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3321,7 +3348,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3333,31 +3360,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3366,14 +3393,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3383,11 +3410,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3399,14 +3426,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3416,14 +3443,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3432,28 +3459,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3465,14 +3492,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3482,11 +3509,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3498,14 +3525,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3515,14 +3542,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3531,14 +3558,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3548,14 +3575,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3564,28 +3591,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3597,14 +3624,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3614,14 +3641,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3630,14 +3657,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3647,14 +3674,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3663,31 +3690,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3696,7 +3723,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3713,11 +3740,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3729,7 +3756,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3746,11 +3773,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3762,14 +3789,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3779,14 +3806,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3795,14 +3822,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3828,7 +3855,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3845,11 +3872,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3861,14 +3888,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3878,14 +3905,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3894,14 +3921,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3911,11 +3938,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3927,14 +3954,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3944,14 +3971,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3960,14 +3987,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3977,14 +4004,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3993,14 +4020,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4010,14 +4037,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4026,14 +4053,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4043,14 +4070,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4059,14 +4086,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,11 +4103,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4092,14 +4119,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,14 +4136,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4125,14 +4152,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4142,14 +4169,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4158,14 +4185,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4175,14 +4202,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4191,7 +4218,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4208,11 +4235,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4224,14 +4251,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4241,11 +4268,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4257,14 +4284,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4274,11 +4301,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4290,14 +4317,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,14 +4334,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4323,14 +4350,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4340,11 +4367,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>85</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4356,14 +4383,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4373,14 +4400,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4396,7 +4423,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4433,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>255</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4429,7 +4456,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4439,14 +4466,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4455,14 +4482,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4472,11 +4499,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4488,14 +4515,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4505,14 +4532,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4521,14 +4548,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4538,14 +4565,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4554,31 +4581,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4587,14 +4614,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4604,14 +4631,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4620,14 +4647,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4637,14 +4664,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>120</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4653,31 +4680,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4686,14 +4713,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4703,14 +4730,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4719,14 +4746,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4736,14 +4763,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4752,14 +4779,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4769,14 +4796,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4785,14 +4812,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4802,14 +4829,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4818,31 +4845,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4851,7 +4878,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4864,18 +4891,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>39</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4884,28 +4911,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4917,14 +4944,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4934,14 +4961,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>287</v>
+        <v>54</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>288</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4950,14 +4977,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4967,14 +4994,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4983,14 +5010,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>291</v>
+        <v>163</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5000,11 +5027,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5016,7 +5043,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5033,14 +5060,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>295</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5049,14 +5076,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5066,14 +5093,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>287</v>
+        <v>169</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>288</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5082,14 +5109,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5099,11 +5126,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>298</v>
+        <v>54</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>299</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5115,14 +5142,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5132,14 +5159,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>121</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5148,14 +5175,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5165,14 +5192,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5181,14 +5208,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5198,11 +5225,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>59</v>
+        <v>307</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5214,14 +5241,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5231,14 +5258,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>307</v>
+        <v>120</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5247,14 +5274,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5264,14 +5291,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>54</v>
+        <v>312</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5280,14 +5307,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5297,49 +5324,148 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6397.21</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>313</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>314</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>315</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>37</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>13</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>316</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>318</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>319</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>13</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>54</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>320</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>321</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>13</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>169</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6545.6099999999997</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>322</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>323</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>324</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5913,10 +6039,25 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -578,6 +578,18 @@
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>HERO BABY DIGEST MILK 400 GM</t>
   </si>
   <si>
@@ -611,6 +623,12 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -728,9 +746,6 @@
     <t>ORCHINOHIST 0.25% EYE DPS. 3 ML</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -866,6 +881,15 @@
     <t>75.9000</t>
   </si>
   <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -875,6 +899,18 @@
     <t>65.2800</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8726:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>ZESTRIL 20MG 10 TAB</t>
   </si>
   <si>
@@ -902,33 +938,27 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>حنه فاتيكا اسود 1 كيس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زبدة كاكاو لونا </t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t>شامبو جونسون وسط</t>
   </si>
   <si>
@@ -977,7 +1007,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:43 PM</t>
+    <t>Saturday, 24 May, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3499,21 +3529,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3525,14 +3555,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3542,11 +3572,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3558,14 +3588,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3575,11 +3605,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3591,14 +3621,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3608,11 +3638,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3624,14 +3654,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3641,14 +3671,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3657,14 +3687,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3674,14 +3704,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3690,20 +3720,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3711,10 +3741,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3723,14 +3753,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3740,14 +3770,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3756,28 +3786,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3789,14 +3819,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3806,14 +3836,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3822,14 +3852,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3839,11 +3869,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3855,14 +3885,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3872,14 +3902,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3888,14 +3918,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3905,11 +3935,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3921,14 +3951,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3938,11 +3968,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3954,14 +3984,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3971,11 +4001,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3987,14 +4017,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4004,14 +4034,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4020,14 +4050,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4037,11 +4067,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4053,14 +4083,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4070,14 +4100,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4086,14 +4116,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4103,11 +4133,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4126,7 +4156,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4136,11 +4166,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4152,14 +4182,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4169,11 +4199,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4185,7 +4215,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4202,14 +4232,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4218,7 +4248,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4235,11 +4265,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4251,7 +4281,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4268,14 +4298,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4284,14 +4314,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4301,14 +4331,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>59</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4317,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4334,14 +4364,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4350,14 +4380,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4367,7 +4397,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4390,7 +4420,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4400,14 +4430,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4416,14 +4446,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4433,14 +4463,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>255</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4456,7 +4486,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4466,11 +4496,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4482,14 +4512,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4499,14 +4529,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4515,14 +4545,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4532,11 +4562,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4548,7 +4578,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4565,14 +4595,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4598,14 +4628,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>63</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4614,14 +4644,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4635,10 +4665,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4654,7 +4684,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4664,14 +4694,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4680,31 +4710,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4720,7 +4750,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4730,14 +4760,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4746,31 +4776,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4779,14 +4809,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4796,11 +4826,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4812,14 +4842,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4829,14 +4859,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4845,14 +4875,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4862,14 +4892,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4878,14 +4908,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4895,14 +4925,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>255</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4911,14 +4941,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4928,11 +4958,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4944,31 +4974,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4977,7 +5007,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4990,18 +5020,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>95</v>
+        <v>249</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>39</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5010,28 +5040,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>163</v>
+        <v>297</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5043,7 +5073,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5056,18 +5086,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5076,14 +5106,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5093,11 +5123,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5109,14 +5139,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5126,14 +5156,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5142,14 +5172,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5159,14 +5189,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>304</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5175,7 +5205,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5192,14 +5222,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>47</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5208,7 +5238,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5225,11 +5255,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5241,14 +5271,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5258,11 +5288,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5274,14 +5304,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>300</v>
+        <v>37</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5291,14 +5321,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q118" s="12">
         <v>313</v>
-      </c>
-      <c t="s" r="Q118" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5314,7 +5344,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5324,14 +5354,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>59</v>
+        <v>308</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5340,14 +5370,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5357,14 +5387,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5373,14 +5403,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5390,14 +5420,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5406,14 +5436,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5423,49 +5453,181 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>169</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>324</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>47</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>13</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>59</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>325</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>37</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>13</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>326</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>328</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>329</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>13</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>54</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>330</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>331</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>13</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>169</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
         <v>170</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6545.6099999999997</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>322</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>323</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>324</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6710.6099999999997</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>332</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>333</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>334</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6054,10 +6216,30 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
@@ -206,6 +215,18 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
   </si>
   <si>
@@ -347,6 +368,15 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>D-DEP 10000IU 30CAPS</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -395,6 +425,15 @@
     <t>DICYNONE 250MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -572,22 +611,19 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>65.00</t>
   </si>
   <si>
-    <t>65.0000</t>
+    <t>130.0000</t>
   </si>
   <si>
     <t>HERO BABY DIGEST MILK 400 GM</t>
@@ -632,9 +668,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -695,6 +728,9 @@
     <t>157.0000</t>
   </si>
   <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -758,9 +794,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>51.0000</t>
   </si>
   <si>
@@ -785,6 +818,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -890,9 +932,24 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -959,6 +1016,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>50:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>شامبو جونسون وسط</t>
   </si>
   <si>
@@ -980,9 +1049,6 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -1007,7 +1073,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 9:48 PM</t>
+    <t>Saturday, 24 May, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1747,7 +1813,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1757,11 +1823,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1773,14 +1839,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1790,11 +1856,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1806,14 +1872,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1823,14 +1889,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1839,14 +1905,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1856,14 +1922,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1872,14 +1938,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1896,7 +1962,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1905,14 +1971,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1922,14 +1988,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1938,14 +2004,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1978,7 +2044,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2011,7 +2077,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2021,11 +2087,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2037,31 +2103,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2070,31 +2136,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2103,14 +2169,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2127,7 +2193,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2143,24 +2209,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2169,14 +2235,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2193,7 +2259,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2209,7 +2275,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2226,7 +2292,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2242,7 +2308,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2252,11 +2318,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2268,14 +2334,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2285,14 +2351,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2301,14 +2367,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2318,14 +2384,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2334,14 +2400,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2351,14 +2417,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2367,14 +2433,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2391,7 +2457,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2407,7 +2473,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2421,10 +2487,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2433,14 +2499,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2450,14 +2516,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2466,14 +2532,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2483,14 +2549,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2506,7 +2572,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2539,7 +2605,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2549,14 +2615,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2565,14 +2631,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2582,11 +2648,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2598,14 +2664,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2615,14 +2681,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2638,7 +2704,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2655,7 +2721,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2671,13 +2737,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2688,7 +2754,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2704,7 +2770,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2714,14 +2780,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2730,14 +2796,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2747,11 +2813,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2763,14 +2829,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2780,14 +2846,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2796,14 +2862,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2813,11 +2879,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2829,14 +2895,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2846,14 +2912,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2862,14 +2928,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2879,11 +2945,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2902,7 +2968,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2912,11 +2978,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2928,14 +2994,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2945,11 +3011,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2961,14 +3027,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2978,11 +3044,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2994,14 +3060,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3011,14 +3077,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3027,7 +3093,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3044,14 +3110,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3060,7 +3126,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3077,14 +3143,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3093,7 +3159,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3106,18 +3172,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3126,14 +3192,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3143,14 +3209,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3159,14 +3225,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3176,11 +3242,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3192,14 +3258,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3213,10 +3279,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3225,31 +3291,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3258,14 +3324,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3275,11 +3341,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3291,14 +3357,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3308,14 +3374,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3324,14 +3390,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3341,14 +3407,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3357,7 +3423,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3374,14 +3440,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3390,14 +3456,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3407,14 +3473,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3423,14 +3489,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3440,14 +3506,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3456,14 +3522,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3473,11 +3539,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3489,28 +3555,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3522,31 +3588,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3555,14 +3621,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3572,11 +3638,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3588,14 +3654,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3605,14 +3671,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3621,28 +3687,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3661,24 +3727,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3687,14 +3753,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3704,11 +3770,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3720,14 +3786,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3737,14 +3803,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3753,14 +3819,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3770,14 +3836,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3786,28 +3852,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3819,14 +3885,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3836,11 +3902,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3852,14 +3918,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3869,14 +3935,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3885,14 +3951,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3902,14 +3968,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3918,28 +3984,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3951,14 +4017,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3968,11 +4034,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3984,14 +4050,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4001,11 +4067,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4017,14 +4083,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4034,14 +4100,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4050,14 +4116,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4067,11 +4133,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4083,14 +4149,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4100,14 +4166,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4116,14 +4182,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4133,11 +4199,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4149,14 +4215,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4166,14 +4232,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4182,14 +4248,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4199,11 +4265,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4215,14 +4281,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4232,14 +4298,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4248,14 +4314,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4265,14 +4331,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4281,14 +4347,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4298,11 +4364,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>57</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4314,14 +4380,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4331,14 +4397,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4347,14 +4413,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4364,14 +4430,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4380,14 +4446,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4397,7 +4463,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4420,7 +4486,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4434,7 +4500,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4446,14 +4512,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4463,14 +4529,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4486,7 +4552,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4496,14 +4562,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4512,7 +4578,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4529,14 +4595,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>260</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4545,14 +4611,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4562,11 +4628,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4578,14 +4644,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4595,11 +4661,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4611,14 +4677,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4628,11 +4694,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4644,14 +4710,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4661,14 +4727,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4677,14 +4743,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4694,14 +4760,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4710,14 +4776,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,14 +4793,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>37</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4743,14 +4809,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4760,14 +4826,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4776,31 +4842,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4809,14 +4875,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4826,14 +4892,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4849,7 +4915,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4859,14 +4925,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4875,14 +4941,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4892,11 +4958,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4908,14 +4974,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4925,14 +4991,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4941,14 +5007,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4958,14 +5024,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4974,31 +5040,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>172</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5007,14 +5073,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5024,14 +5090,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>260</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5040,14 +5106,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5057,11 +5123,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5080,7 +5146,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5090,11 +5156,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5106,31 +5172,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>55</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5146,24 +5212,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5172,31 +5238,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5205,7 +5271,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5218,18 +5284,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>43</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>267</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>291</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5238,28 +5304,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5271,31 +5337,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5304,31 +5370,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>86</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>313</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5337,31 +5403,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5370,14 +5436,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5387,11 +5453,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>57</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5403,14 +5469,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5420,14 +5486,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>121</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5436,14 +5502,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5453,11 +5519,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>130</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5469,14 +5535,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5486,14 +5552,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5502,14 +5568,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5519,14 +5585,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>326</v>
+        <v>182</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>327</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5535,14 +5601,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5552,14 +5618,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5568,14 +5634,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5585,49 +5651,346 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6710.6099999999997</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>332</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>333</v>
       </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>40</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>13</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>327</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>334</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q127" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>335</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>336</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>13</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>337</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>339</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>16</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>13</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>340</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>341</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>342</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>343</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>13</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>130</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>344</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>330</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>13</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>345</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>346</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>50</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>13</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>62</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>347</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>40</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>13</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>348</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>349</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>350</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>351</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>13</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>57</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>352</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>353</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>13</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>182</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7263.7700000000004</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>354</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>355</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>356</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6236,10 +6599,55 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -107,6 +107,21 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -386,9 +401,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -476,9 +488,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -929,9 +938,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -1007,7 +1013,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1073,7 +1079,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 10:08 PM</t>
+    <t>Saturday, 24 May, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1896,7 +1902,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1905,14 +1911,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1922,14 +1928,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1962,7 +1968,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1971,14 +1977,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1988,14 +1994,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2004,14 +2010,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2028,7 +2034,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2037,14 +2043,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2054,11 +2060,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2070,14 +2076,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2087,11 +2093,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2103,14 +2109,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2120,11 +2126,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2136,31 +2142,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2169,31 +2175,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2202,31 +2208,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2235,28 +2241,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2268,14 +2274,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2285,14 +2291,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2301,14 +2307,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2318,14 +2324,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2334,14 +2340,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2351,14 +2357,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2367,14 +2373,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2384,14 +2390,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2400,14 +2406,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2417,11 +2423,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2433,14 +2439,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2450,14 +2456,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2466,14 +2472,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2483,11 +2489,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2499,14 +2505,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2516,14 +2522,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2532,14 +2538,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2549,14 +2555,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2565,14 +2571,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2582,11 +2588,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2598,14 +2604,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2615,14 +2621,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2631,14 +2637,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2648,14 +2654,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2664,14 +2670,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2681,11 +2687,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2697,14 +2703,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2714,11 +2720,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2730,28 +2736,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2763,31 +2769,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2796,14 +2802,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2813,14 +2819,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2829,14 +2835,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2846,11 +2852,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2862,7 +2868,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2879,11 +2885,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2895,14 +2901,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2912,11 +2918,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2935,7 +2941,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2945,14 +2951,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2961,14 +2967,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2978,14 +2984,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2994,14 +3000,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3011,11 +3017,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3027,14 +3033,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3044,14 +3050,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3060,14 +3066,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3100,7 +3106,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3110,14 +3116,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3126,7 +3132,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3143,11 +3149,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3159,14 +3165,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3176,14 +3182,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3192,14 +3198,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3209,14 +3215,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3232,7 +3238,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3249,7 +3255,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3298,13 +3304,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3315,7 +3321,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3331,13 +3337,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3364,7 +3370,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3381,7 +3387,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3397,7 +3403,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3407,14 +3413,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3430,7 +3436,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3440,14 +3446,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3463,7 +3469,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3480,7 +3486,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3496,7 +3502,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3506,14 +3512,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3522,14 +3528,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3539,14 +3545,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3562,7 +3568,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3579,7 +3585,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3595,7 +3601,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3605,14 +3611,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3621,14 +3627,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3642,10 +3648,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3654,14 +3660,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3671,14 +3677,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3687,31 +3693,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3720,14 +3726,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3737,14 +3743,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3753,20 +3759,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3777,7 +3783,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3793,7 +3799,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3826,7 +3832,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3836,11 +3842,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3852,14 +3858,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3869,7 +3875,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3892,7 +3898,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3902,11 +3908,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3918,14 +3924,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3935,14 +3941,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3951,14 +3957,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3968,14 +3974,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3984,31 +3990,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4017,28 +4023,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4057,7 +4063,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4067,11 +4073,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4083,14 +4089,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4100,14 +4106,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4123,7 +4129,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4133,14 +4139,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4149,14 +4155,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4166,11 +4172,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4182,14 +4188,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4199,11 +4205,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4215,14 +4221,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4232,11 +4238,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4248,14 +4254,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4265,11 +4271,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4288,7 +4294,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4298,11 +4304,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4314,14 +4320,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4331,14 +4337,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4347,14 +4353,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4364,14 +4370,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4380,14 +4386,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4397,14 +4403,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4437,7 +4443,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4453,7 +4459,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4463,14 +4469,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4479,14 +4485,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4496,14 +4502,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4512,14 +4518,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4529,11 +4535,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4552,7 +4558,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4562,11 +4568,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4578,14 +4584,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4595,14 +4601,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4618,7 +4624,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4628,11 +4634,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>26</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4644,14 +4650,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4661,14 +4667,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4684,7 +4690,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4694,14 +4700,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>92</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4710,14 +4716,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4727,11 +4733,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4743,14 +4749,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4760,7 +4766,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4783,7 +4789,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4793,14 +4799,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>274</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4816,7 +4822,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4826,14 +4832,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4842,14 +4848,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4866,7 +4872,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4882,7 +4888,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4892,14 +4898,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>66</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4915,7 +4921,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4925,14 +4931,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>71</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4941,14 +4947,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4958,14 +4964,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4974,14 +4980,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4991,14 +4997,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5014,7 +5020,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5024,14 +5030,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5047,24 +5053,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5073,7 +5079,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5086,18 +5092,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5106,14 +5112,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5123,11 +5129,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5139,14 +5145,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5156,11 +5162,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5172,14 +5178,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5189,14 +5195,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5212,7 +5218,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5222,14 +5228,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5245,7 +5251,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5255,14 +5261,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5271,14 +5277,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5288,14 +5294,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>185</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5304,14 +5310,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5321,14 +5327,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5344,7 +5350,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5354,14 +5360,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>274</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5377,7 +5383,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5387,14 +5393,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5403,14 +5409,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5420,11 +5426,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5436,28 +5442,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>58</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5469,14 +5475,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5486,14 +5492,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>324</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5509,7 +5515,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5519,14 +5525,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5535,14 +5541,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5552,14 +5558,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>281</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5575,7 +5581,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5585,14 +5591,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>182</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5601,14 +5607,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5618,11 +5624,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5641,7 +5647,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5651,14 +5657,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>317</v>
+        <v>62</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>332</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5674,7 +5680,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5684,14 +5690,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q127" s="12">
         <v>334</v>
-      </c>
-      <c t="s" r="Q127" s="12">
-        <v>50</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5707,7 +5713,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5717,14 +5723,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5733,14 +5739,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5750,11 +5756,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5766,14 +5772,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>343</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5783,11 +5789,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>130</v>
+        <v>342</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5806,7 +5812,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5816,11 +5822,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>345</v>
+        <v>134</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5839,7 +5845,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>50</v>
+        <v>332</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5849,11 +5855,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>62</v>
+        <v>347</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5865,14 +5871,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5882,14 +5888,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>348</v>
+        <v>67</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>349</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5898,14 +5904,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5915,14 +5921,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>57</v>
+        <v>350</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>212</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5948,49 +5954,82 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>7263.7700000000004</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>354</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
         <v>355</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>13</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>185</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>7308.7700000000004</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
         <v>356</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>357</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>358</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6644,10 +6683,15 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -797,7 +797,7 @@
     <t>240.00</t>
   </si>
   <si>
-    <t>79.2000</t>
+    <t>158.4000</t>
   </si>
   <si>
     <t>PANTOLOC 40MG 14 TAB</t>
@@ -875,6 +875,12 @@
     <t>6.7200</t>
   </si>
   <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -1079,7 +1085,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 10:10 PM</t>
+    <t>Saturday, 24 May, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4624,7 +4630,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4641,7 +4647,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4964,14 +4970,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4987,7 +4993,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4997,14 +5003,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5030,14 +5036,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5046,14 +5052,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5067,10 +5073,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5079,31 +5085,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>88</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5125,18 +5131,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5152,7 +5158,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5162,11 +5168,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5178,7 +5184,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5195,11 +5201,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5211,14 +5217,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5228,14 +5234,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5244,14 +5250,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>308</v>
+        <v>29</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5261,14 +5267,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>35</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5284,7 +5290,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5294,14 +5300,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5310,14 +5316,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5327,14 +5333,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5343,14 +5349,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5360,14 +5366,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5383,7 +5389,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5393,14 +5399,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5416,7 +5422,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>318</v>
+        <v>47</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5426,14 +5432,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5442,14 +5448,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5459,11 +5465,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5475,28 +5481,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>62</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>63</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5508,7 +5514,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5525,14 +5531,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5548,7 +5554,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5558,14 +5564,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5574,14 +5580,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5591,14 +5597,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>134</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>284</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>308</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5614,7 +5620,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5624,14 +5630,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5640,14 +5646,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5657,11 +5663,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5680,7 +5686,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5690,14 +5696,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>334</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5723,14 +5729,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q128" s="12">
         <v>336</v>
-      </c>
-      <c t="s" r="Q128" s="12">
-        <v>55</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5746,7 +5752,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5756,14 +5762,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5772,14 +5778,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5789,11 +5795,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5805,14 +5811,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5822,11 +5828,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>134</v>
+        <v>344</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>135</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5845,7 +5851,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5855,11 +5861,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>347</v>
+        <v>134</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5878,7 +5884,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5888,11 +5894,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>67</v>
+        <v>349</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5904,14 +5910,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5921,14 +5927,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>351</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5937,14 +5943,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5954,11 +5960,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>62</v>
+        <v>352</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>215</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>47</v>
@@ -5987,49 +5993,82 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>356</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>357</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>13</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>185</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
         <v>186</v>
       </c>
-      <c t="s" r="Q136" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>7308.7700000000004</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
-        <v>356</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
-        <v>357</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>7420.9700000000003</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
         <v>358</v>
       </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>359</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>360</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6688,10 +6727,15 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>29.7000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
@@ -554,6 +563,15 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -581,12 +599,6 @@
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
     <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
   </si>
   <si>
@@ -800,6 +812,15 @@
     <t>158.4000</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -938,6 +959,15 @@
     <t>75.9000</t>
   </si>
   <si>
+    <t>TRIMED FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
   </si>
   <si>
@@ -980,6 +1010,12 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>ZESTRIL 20MG 10 TAB</t>
   </si>
   <si>
@@ -1019,13 +1055,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28:0</t>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>15.0000</t>
+    <t>9:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -1085,7 +1124,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 10:16 PM</t>
+    <t>Saturday, 24 May, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2221,7 +2260,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2231,11 +2270,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2247,31 +2286,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2280,20 +2319,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2320,7 +2359,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2337,7 +2376,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2353,7 +2392,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2363,14 +2402,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2379,14 +2418,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2403,7 +2442,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2419,7 +2458,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2436,7 +2475,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2452,7 +2491,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2485,7 +2524,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2502,7 +2541,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2518,7 +2557,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2551,7 +2590,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2561,14 +2600,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2577,14 +2616,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2598,10 +2637,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2610,14 +2649,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2627,11 +2666,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2650,7 +2689,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2660,14 +2699,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2676,14 +2715,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2700,7 +2739,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2716,7 +2755,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2749,7 +2788,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2782,13 +2821,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2815,24 +2854,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2848,7 +2887,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2858,14 +2897,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2881,7 +2920,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2924,11 +2963,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2940,14 +2979,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2957,11 +2996,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2973,14 +3012,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2990,14 +3029,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3006,14 +3045,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3023,14 +3062,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3046,7 +3085,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3079,7 +3118,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3096,7 +3135,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3112,7 +3151,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3122,11 +3161,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3138,14 +3177,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3155,14 +3194,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3171,7 +3210,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3188,11 +3227,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3204,14 +3243,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3221,14 +3260,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3237,14 +3276,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3254,14 +3293,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3277,7 +3316,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3294,7 +3333,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3343,13 +3382,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3360,7 +3399,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3376,13 +3415,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3409,7 +3448,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3426,7 +3465,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3442,7 +3481,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3452,14 +3491,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3475,7 +3514,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3485,14 +3524,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3508,7 +3547,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3525,7 +3564,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3541,7 +3580,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3551,14 +3590,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3567,14 +3606,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3584,14 +3623,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3600,14 +3639,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3617,14 +3656,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3640,7 +3679,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3650,14 +3689,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3666,14 +3705,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3683,11 +3722,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3699,14 +3738,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3716,14 +3755,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3739,21 +3778,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3765,20 +3804,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3786,10 +3825,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3798,7 +3837,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3811,15 +3850,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3831,31 +3870,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3864,14 +3903,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3881,11 +3920,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3897,14 +3936,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3914,11 +3953,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3930,14 +3969,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3947,11 +3986,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3963,14 +4002,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3980,14 +4019,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3996,14 +4035,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4013,14 +4052,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4029,20 +4068,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -4050,10 +4089,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4062,14 +4101,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4079,14 +4118,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4102,21 +4141,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4128,14 +4167,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4145,14 +4184,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4161,14 +4200,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4178,11 +4217,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4201,7 +4240,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4211,14 +4250,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4227,14 +4266,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4244,11 +4283,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4260,14 +4299,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4277,11 +4316,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4300,7 +4339,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4310,11 +4349,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4326,14 +4365,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4343,11 +4382,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4366,7 +4405,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4376,14 +4415,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4392,14 +4431,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4409,11 +4448,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4425,14 +4464,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4442,14 +4481,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4465,7 +4504,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4475,11 +4514,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4491,14 +4530,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4508,11 +4547,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4524,14 +4563,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4541,11 +4580,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4574,14 +4613,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4590,7 +4629,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4607,11 +4646,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4630,7 +4669,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4647,7 +4686,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4663,7 +4702,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4673,14 +4712,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4689,14 +4728,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4706,14 +4745,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4722,14 +4761,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4739,7 +4778,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>97</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4762,7 +4801,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4772,7 +4811,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4795,7 +4834,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4812,7 +4851,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4828,7 +4867,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4838,14 +4877,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>277</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4854,14 +4893,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4871,11 +4910,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4887,14 +4926,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4904,14 +4943,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4920,14 +4959,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4937,14 +4976,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4953,14 +4992,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4970,14 +5009,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4986,7 +5025,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5003,14 +5042,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5036,14 +5075,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5052,14 +5091,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5069,14 +5108,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5092,7 +5131,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5106,10 +5145,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5118,31 +5157,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>88</v>
+        <v>290</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5151,14 +5190,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5168,14 +5207,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5191,7 +5230,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5201,14 +5240,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5217,31 +5256,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5250,14 +5289,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5267,14 +5306,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>307</v>
+        <v>206</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5283,14 +5322,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5300,11 +5339,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5316,14 +5355,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5333,14 +5372,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>185</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5349,14 +5388,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5366,14 +5405,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>48</v>
+        <v>314</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>188</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5382,14 +5421,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>316</v>
+        <v>21</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5399,14 +5438,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5415,14 +5454,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5432,14 +5471,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>26</v>
+        <v>298</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>318</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5448,14 +5487,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>320</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5465,14 +5504,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5481,14 +5520,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5498,14 +5537,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>48</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>325</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5514,28 +5553,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>47</v>
+        <v>326</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5560,18 +5599,18 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
         <v>328</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>47</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5587,21 +5626,21 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>179</v>
+        <v>330</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>135</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5613,31 +5652,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>310</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5646,28 +5685,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>186</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5679,14 +5718,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>334</v>
+        <v>47</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5712,14 +5751,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5729,14 +5768,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>321</v>
+        <v>110</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>213</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>336</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5745,14 +5784,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5762,14 +5801,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>331</v>
+        <v>137</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>338</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5778,14 +5817,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5795,14 +5834,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5811,7 +5850,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5828,11 +5867,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>344</v>
+        <v>191</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>345</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5844,14 +5883,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5861,11 +5900,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5877,14 +5916,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5894,14 +5933,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>349</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5917,7 +5956,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5927,14 +5966,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>67</v>
+        <v>343</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5943,14 +5982,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5960,14 +5999,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5976,14 +6015,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>355</v>
+        <v>16</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5993,14 +6032,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>62</v>
+        <v>357</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6009,14 +6048,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6026,49 +6065,214 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>7420.9700000000003</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>358</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
-        <v>359</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
-        <v>360</v>
-      </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>361</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>346</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>13</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>362</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>363</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>55</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>13</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>67</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>364</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>45</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>13</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>365</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>366</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>367</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>368</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>13</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>62</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>369</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>370</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>13</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>191</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="P143" s="13">
+        <v>7703.25</v>
+      </c>
+      <c r="Q143" s="13"/>
+    </row>
+    <row r="144" ht="16.5" customHeight="1">
+      <c t="s" r="A144" s="14">
+        <v>371</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c t="s" r="G144" s="15">
+        <v>372</v>
+      </c>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c t="s" r="K144" s="17">
+        <v>373</v>
+      </c>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="692">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6732,10 +6936,35 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="K144:Q144"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-24_00-00.xlsx
+++ b/DaySale_2025-05-24_00-00.xlsx
@@ -476,13 +476,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>5:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>63.8400</t>
   </si>
   <si>
     <t>EFEMYO OPHTH. SUSP. 10 ML</t>
@@ -812,15 +812,18 @@
     <t>158.4000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -1124,7 +1127,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 24 May, 2025 10:18 PM</t>
+    <t>Saturday, 24 May, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3201,7 +3204,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -4768,7 +4771,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4782,7 +4785,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4794,14 +4797,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4811,14 +4814,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4827,14 +4830,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4844,14 +4847,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4860,14 +4863,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4877,14 +4880,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4893,14 +4896,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4910,11 +4913,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4926,14 +4929,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4943,11 +4946,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4959,14 +4962,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4976,14 +4979,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>284</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4992,14 +4995,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5009,14 +5012,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5025,14 +5028,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5042,14 +5045,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5058,14 +5061,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5075,14 +5078,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5091,14 +5094,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5108,14 +5111,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5124,7 +5127,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5141,14 +5144,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>107</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>162</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5157,14 +5160,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5174,14 +5177,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5190,14 +5193,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5207,14 +5210,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5223,14 +5226,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5240,14 +5243,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5256,31 +5259,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>91</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5289,7 +5292,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5302,18 +5305,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5322,14 +5325,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5339,11 +5342,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>138</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5372,11 +5375,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5395,7 +5398,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5405,14 +5408,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>314</v>
+        <v>185</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>315</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5421,14 +5424,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5438,11 +5441,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5454,14 +5457,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>320</v>
+        <v>21</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5471,14 +5474,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>35</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5487,14 +5490,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>321</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5504,14 +5507,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="O120" s="8"/>
       <